--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431067.738952883</v>
+        <v>1430296.853115657</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2504754.932699657</v>
+        <v>2504754.932699658</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736557</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G3" t="n">
-        <v>8.816525072005941</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H3" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="I3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E5" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,70 +975,70 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,49 +1069,49 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>63.64980803040777</v>
       </c>
       <c r="H8" t="n">
-        <v>51.70686135005327</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>83.62793689071134</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="S8" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>5.961024356499564</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>30.40253503120657</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="I10" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.20282061337015</v>
       </c>
       <c r="W10" t="n">
-        <v>73.65948681333849</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>286.1143700539488</v>
       </c>
       <c r="C11" t="n">
-        <v>274.1256870116306</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>265.1069910561586</v>
       </c>
       <c r="E11" t="n">
         <v>286.8491286260641</v>
       </c>
       <c r="F11" t="n">
-        <v>306.0209447140413</v>
+        <v>20.37564717601836</v>
       </c>
       <c r="G11" t="n">
         <v>307.4888557213729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.7384913391307</v>
       </c>
       <c r="I11" t="n">
-        <v>49.15962122917411</v>
+        <v>49.15962122917418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.76363141411409</v>
+        <v>70.76363141411413</v>
       </c>
       <c r="T11" t="n">
         <v>116.0895229510361</v>
@@ -1430,13 +1430,13 @@
         <v>229.620747294128</v>
       </c>
       <c r="W11" t="n">
-        <v>211.6922006466677</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>274.2211050048315</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>285.6177028010302</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.192227089953</v>
       </c>
       <c r="H12" t="n">
-        <v>96.53378007541949</v>
+        <v>96.5337800754195</v>
       </c>
       <c r="I12" t="n">
-        <v>59.1258531896765</v>
+        <v>59.12585318967653</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>43.72733617957552</v>
+        <v>43.72733617957557</v>
       </c>
       <c r="S12" t="n">
         <v>146.6466513216628</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.73108092864592</v>
+        <v>77.73108092864594</v>
       </c>
       <c r="C13" t="n">
-        <v>63.93107577404641</v>
+        <v>63.93107577404642</v>
       </c>
       <c r="D13" t="n">
-        <v>47.5524401716248</v>
+        <v>47.55244017162481</v>
       </c>
       <c r="E13" t="n">
-        <v>46.50019002740424</v>
+        <v>46.50019002740426</v>
       </c>
       <c r="F13" t="n">
-        <v>46.96711435559055</v>
+        <v>46.96711435559057</v>
       </c>
       <c r="G13" t="n">
-        <v>63.03307399652673</v>
+        <v>63.03307399652674</v>
       </c>
       <c r="H13" t="n">
-        <v>51.93426894833244</v>
+        <v>51.93426894833247</v>
       </c>
       <c r="I13" t="n">
-        <v>32.49480615716943</v>
+        <v>32.49480615716946</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65198154182243</v>
+        <v>34.65198154182048</v>
       </c>
       <c r="S13" t="n">
         <v>103.9461083091943</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>179.5718668411204</v>
       </c>
       <c r="C14" t="n">
         <v>274.1256870116306</v>
@@ -1625,7 +1625,7 @@
         <v>220.7384913391307</v>
       </c>
       <c r="I14" t="n">
-        <v>49.15962122917421</v>
+        <v>49.15962122917419</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.76363141411414</v>
+        <v>70.76363141411413</v>
       </c>
       <c r="T14" t="n">
         <v>116.0895229510361</v>
       </c>
       <c r="U14" t="n">
-        <v>148.3105203030485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>229.620747294128</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>254.9208467720849</v>
       </c>
       <c r="X14" t="n">
-        <v>230.1852378032553</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>285.6177028010302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.5337800754195</v>
       </c>
       <c r="I15" t="n">
-        <v>59.12585318967655</v>
+        <v>59.12585318967653</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>43.7273361795756</v>
+        <v>43.72733617957558</v>
       </c>
       <c r="S15" t="n">
         <v>146.6466513216628</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.73108092864592</v>
+        <v>77.73108092864594</v>
       </c>
       <c r="C16" t="n">
-        <v>63.93107577404641</v>
+        <v>63.93107577404642</v>
       </c>
       <c r="D16" t="n">
-        <v>47.5524401716248</v>
+        <v>47.55244017162481</v>
       </c>
       <c r="E16" t="n">
-        <v>46.50019002740424</v>
+        <v>46.50019002740426</v>
       </c>
       <c r="F16" t="n">
-        <v>46.96711435559055</v>
+        <v>46.96711435559057</v>
       </c>
       <c r="G16" t="n">
-        <v>63.03307399652673</v>
+        <v>63.03307399652674</v>
       </c>
       <c r="H16" t="n">
-        <v>51.93426894833245</v>
+        <v>51.93426894833247</v>
       </c>
       <c r="I16" t="n">
         <v>32.49480615716946</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.4334979044805</v>
+        <v>231.4334979044796</v>
       </c>
       <c r="C17" t="n">
         <v>219.4448148621617</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.08275926464526</v>
+        <v>16.08275926464524</v>
       </c>
       <c r="T17" t="n">
-        <v>61.40865080156726</v>
+        <v>61.40865080156724</v>
       </c>
       <c r="U17" t="n">
-        <v>93.62964815357967</v>
+        <v>93.62964815357964</v>
       </c>
       <c r="V17" t="n">
         <v>174.9398751446591</v>
@@ -1938,7 +1938,7 @@
         <v>127.192227089953</v>
       </c>
       <c r="H18" t="n">
-        <v>96.53378007541949</v>
+        <v>96.5337800754195</v>
       </c>
       <c r="I18" t="n">
         <v>59.12585318967653</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.72733617957556</v>
+        <v>43.72733617957557</v>
       </c>
       <c r="S18" t="n">
         <v>146.6466513216628</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.05020877917707</v>
+        <v>23.05020877917704</v>
       </c>
       <c r="C19" t="n">
-        <v>9.250203624577551</v>
+        <v>9.250203624577523</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.352201847057879</v>
+        <v>8.352201847057851</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.62488334305584</v>
       </c>
       <c r="S19" t="n">
-        <v>49.2652361597254</v>
+        <v>49.26523615972538</v>
       </c>
       <c r="T19" t="n">
-        <v>71.28565518145101</v>
+        <v>71.28565518145098</v>
       </c>
       <c r="U19" t="n">
         <v>125.6373449112279</v>
       </c>
       <c r="V19" t="n">
-        <v>99.45834517880266</v>
+        <v>99.45834517880263</v>
       </c>
       <c r="W19" t="n">
         <v>124.6252312494159</v>
       </c>
       <c r="X19" t="n">
-        <v>70.27033324521904</v>
+        <v>70.27033324521901</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.7700843443425</v>
+        <v>61.14520100128669</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.08275926464526</v>
+        <v>16.08275926464527</v>
       </c>
       <c r="T20" t="n">
-        <v>61.40865080156726</v>
+        <v>61.40865080156727</v>
       </c>
       <c r="U20" t="n">
         <v>93.62964815357967</v>
@@ -2141,7 +2141,7 @@
         <v>174.9398751446591</v>
       </c>
       <c r="W20" t="n">
-        <v>200.239974622616</v>
+        <v>200.2399746226149</v>
       </c>
       <c r="X20" t="n">
         <v>219.5402328553626</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>55.62488334305559</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>71.28565518145101</v>
       </c>
       <c r="U22" t="n">
-        <v>181.2622282542834</v>
+        <v>125.6373449112279</v>
       </c>
       <c r="V22" t="n">
         <v>99.45834517880266</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>55.62488334305559</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>8.352201847057879</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.62488334305557</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.1143700539488</v>
+        <v>218.7410835783839</v>
       </c>
       <c r="C26" t="n">
         <v>274.1256870116306</v>
@@ -2561,16 +2561,16 @@
         <v>265.1069910561586</v>
       </c>
       <c r="E26" t="n">
-        <v>286.8491286260642</v>
+        <v>286.8491286260641</v>
       </c>
       <c r="F26" t="n">
         <v>306.0209447140413</v>
       </c>
       <c r="G26" t="n">
-        <v>125.6903859167383</v>
+        <v>307.4888557213729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.7384913391307</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.76363141411414</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>116.0895229510361</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>148.3105203030485</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>229.620747294128</v>
@@ -2621,7 +2621,7 @@
         <v>274.2211050048315</v>
       </c>
       <c r="Y26" t="n">
-        <v>285.6177028010303</v>
+        <v>285.6177028010302</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.73108092864595</v>
+        <v>77.73108092864594</v>
       </c>
       <c r="C28" t="n">
-        <v>63.93107577404643</v>
+        <v>63.93107577404642</v>
       </c>
       <c r="D28" t="n">
-        <v>47.55244017162482</v>
+        <v>47.55244017162481</v>
       </c>
       <c r="E28" t="n">
-        <v>46.50019002740427</v>
+        <v>46.50019002740426</v>
       </c>
       <c r="F28" t="n">
-        <v>46.96711435559058</v>
+        <v>46.96711435559057</v>
       </c>
       <c r="G28" t="n">
-        <v>63.03307399652676</v>
+        <v>63.03307399652674</v>
       </c>
       <c r="H28" t="n">
-        <v>51.93426894833248</v>
+        <v>51.93426894833247</v>
       </c>
       <c r="I28" t="n">
-        <v>32.49480615716948</v>
+        <v>32.49480615716946</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65198154182049</v>
+        <v>34.65198154182048</v>
       </c>
       <c r="S28" t="n">
         <v>103.9461083091943</v>
@@ -2767,7 +2767,7 @@
         <v>125.9665273309199</v>
       </c>
       <c r="U28" t="n">
-        <v>180.3182170606968</v>
+        <v>180.3182170606967</v>
       </c>
       <c r="V28" t="n">
         <v>154.1392173282715</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.315900249315</v>
+        <v>286.1143700539488</v>
       </c>
       <c r="C29" t="n">
         <v>274.1256870116306</v>
@@ -2798,7 +2798,7 @@
         <v>265.1069910561586</v>
       </c>
       <c r="E29" t="n">
-        <v>286.8491286260642</v>
+        <v>286.8491286260641</v>
       </c>
       <c r="F29" t="n">
         <v>306.0209447140413</v>
@@ -2807,10 +2807,10 @@
         <v>307.4888557213729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>146.9731765633694</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>49.15962122917416</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.76363141411414</v>
+        <v>70.76363141411413</v>
       </c>
       <c r="T29" t="n">
         <v>116.0895229510361</v>
       </c>
       <c r="U29" t="n">
-        <v>148.3105203030485</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>229.620747294128</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>254.9208467720849</v>
@@ -2858,7 +2858,7 @@
         <v>274.2211050048315</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.6177028010303</v>
+        <v>285.6177028010302</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.73108092864595</v>
+        <v>77.73108092864594</v>
       </c>
       <c r="C31" t="n">
-        <v>63.93107577404643</v>
+        <v>63.93107577404642</v>
       </c>
       <c r="D31" t="n">
-        <v>47.55244017162482</v>
+        <v>47.55244017162481</v>
       </c>
       <c r="E31" t="n">
-        <v>46.50019002740427</v>
+        <v>46.50019002740426</v>
       </c>
       <c r="F31" t="n">
-        <v>46.96711435559058</v>
+        <v>46.96711435559057</v>
       </c>
       <c r="G31" t="n">
         <v>63.03307399652675</v>
       </c>
       <c r="H31" t="n">
-        <v>51.93426894833248</v>
+        <v>51.93426894833247</v>
       </c>
       <c r="I31" t="n">
-        <v>32.49480615716947</v>
+        <v>32.49480615716946</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65198154182049</v>
+        <v>34.65198154182048</v>
       </c>
       <c r="S31" t="n">
         <v>103.9461083091943</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.08275926464523</v>
+        <v>16.08275926464526</v>
       </c>
       <c r="T35" t="n">
-        <v>61.40865080156723</v>
+        <v>61.40865080156726</v>
       </c>
       <c r="U35" t="n">
-        <v>93.62964815357964</v>
+        <v>93.62964815357967</v>
       </c>
       <c r="V35" t="n">
         <v>174.9398751446591</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.05020877917704</v>
+        <v>23.05020877917707</v>
       </c>
       <c r="C37" t="n">
-        <v>9.250203624577523</v>
+        <v>9.250203624577551</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.62488334305579</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.352201847057851</v>
+        <v>8.352201847057879</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.26523615972538</v>
+        <v>104.8901195027809</v>
       </c>
       <c r="T37" t="n">
-        <v>71.28565518145098</v>
+        <v>71.28565518145101</v>
       </c>
       <c r="U37" t="n">
         <v>125.6373449112279</v>
       </c>
       <c r="V37" t="n">
-        <v>99.45834517880263</v>
+        <v>99.45834517880266</v>
       </c>
       <c r="W37" t="n">
         <v>124.6252312494159</v>
       </c>
       <c r="X37" t="n">
-        <v>70.27033324521901</v>
+        <v>70.27033324521904</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.14520100128669</v>
+        <v>61.14520100128672</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>231.4334979044799</v>
       </c>
       <c r="C38" t="n">
-        <v>219.4448148621617</v>
+        <v>219.4448148621616</v>
       </c>
       <c r="D38" t="n">
-        <v>210.4261189066897</v>
+        <v>210.4261189066896</v>
       </c>
       <c r="E38" t="n">
         <v>232.1682564765952</v>
       </c>
       <c r="F38" t="n">
-        <v>251.3400725645724</v>
+        <v>251.3400725645723</v>
       </c>
       <c r="G38" t="n">
         <v>252.807983571904</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.0827592646452</v>
+        <v>16.08275926464518</v>
       </c>
       <c r="T38" t="n">
-        <v>61.40865080156721</v>
+        <v>61.40865080156718</v>
       </c>
       <c r="U38" t="n">
-        <v>93.62964815357961</v>
+        <v>93.62964815357958</v>
       </c>
       <c r="V38" t="n">
-        <v>174.9398751446591</v>
+        <v>174.939875144659</v>
       </c>
       <c r="W38" t="n">
-        <v>200.239974622616</v>
+        <v>200.2399746226159</v>
       </c>
       <c r="X38" t="n">
-        <v>219.5402328553626</v>
+        <v>219.5402328553625</v>
       </c>
       <c r="Y38" t="n">
         <v>230.9368306515613</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.05020877917701</v>
+        <v>23.05020877917698</v>
       </c>
       <c r="C40" t="n">
-        <v>9.250203624577495</v>
+        <v>9.250203624577466</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.352201847057822</v>
+        <v>8.352201847057794</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.26523615972535</v>
+        <v>49.26523615972533</v>
       </c>
       <c r="T40" t="n">
-        <v>71.28565518145095</v>
+        <v>71.28565518145092</v>
       </c>
       <c r="U40" t="n">
-        <v>125.6373449112278</v>
+        <v>181.2622282542843</v>
       </c>
       <c r="V40" t="n">
-        <v>99.4583451788026</v>
+        <v>99.45834517880257</v>
       </c>
       <c r="W40" t="n">
-        <v>180.250114592472</v>
+        <v>124.6252312494158</v>
       </c>
       <c r="X40" t="n">
-        <v>70.27033324521898</v>
+        <v>70.27033324521895</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.14520100128667</v>
+        <v>61.14520100128664</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>210.4261189066896</v>
       </c>
       <c r="E41" t="n">
-        <v>232.1682564765951</v>
+        <v>232.1682564765952</v>
       </c>
       <c r="F41" t="n">
         <v>251.3400725645723</v>
       </c>
       <c r="G41" t="n">
-        <v>252.8079835719039</v>
+        <v>252.807983571904</v>
       </c>
       <c r="H41" t="n">
         <v>166.0576191896618</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.08275926464513</v>
+        <v>16.08275926464518</v>
       </c>
       <c r="T41" t="n">
-        <v>61.40865080156713</v>
+        <v>61.40865080156723</v>
       </c>
       <c r="U41" t="n">
-        <v>93.62964815357952</v>
+        <v>93.62964815357958</v>
       </c>
       <c r="V41" t="n">
         <v>174.939875144659</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.05020877917693</v>
+        <v>23.05020877917698</v>
       </c>
       <c r="C43" t="n">
-        <v>9.250203624577409</v>
+        <v>9.250203624577466</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.352201847057737</v>
+        <v>8.352201847057794</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.26523615972527</v>
+        <v>104.8901195027818</v>
       </c>
       <c r="T43" t="n">
-        <v>71.28565518145086</v>
+        <v>71.28565518145092</v>
       </c>
       <c r="U43" t="n">
-        <v>125.6373449112277</v>
+        <v>125.6373449112278</v>
       </c>
       <c r="V43" t="n">
-        <v>155.0832285218594</v>
+        <v>99.45834517880257</v>
       </c>
       <c r="W43" t="n">
         <v>124.6252312494158</v>
       </c>
       <c r="X43" t="n">
-        <v>70.27033324521889</v>
+        <v>70.27033324521895</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.14520100128658</v>
+        <v>61.14520100128664</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>210.4261189066896</v>
       </c>
       <c r="E44" t="n">
-        <v>232.1682564765951</v>
+        <v>232.1682564765952</v>
       </c>
       <c r="F44" t="n">
         <v>251.3400725645723</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.08275926464595</v>
+        <v>16.08275926464518</v>
       </c>
       <c r="T44" t="n">
-        <v>61.40865080156716</v>
+        <v>61.40865080156718</v>
       </c>
       <c r="U44" t="n">
-        <v>93.62964815357955</v>
+        <v>93.62964815357958</v>
       </c>
       <c r="V44" t="n">
         <v>174.939875144659</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.05020877917696</v>
+        <v>23.05020877917698</v>
       </c>
       <c r="C46" t="n">
-        <v>9.250203624577438</v>
+        <v>9.250203624577466</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>8.352201847057765</v>
+        <v>8.352201847057794</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>104.8901195027819</v>
+        <v>104.8901195027818</v>
       </c>
       <c r="T46" t="n">
-        <v>71.28565518145089</v>
+        <v>71.28565518145092</v>
       </c>
       <c r="U46" t="n">
         <v>125.6373449112278</v>
       </c>
       <c r="V46" t="n">
-        <v>99.45834517880255</v>
+        <v>99.45834517880257</v>
       </c>
       <c r="W46" t="n">
         <v>124.6252312494158</v>
       </c>
       <c r="X46" t="n">
-        <v>70.27033324521892</v>
+        <v>70.27033324521895</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.14520100128661</v>
+        <v>61.14520100128664</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="C2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="D2" t="n">
         <v>31.13313425091136</v>
       </c>
       <c r="E2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F2" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G2" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H2" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I2" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N2" t="n">
-        <v>10.3099691464193</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O2" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P2" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="C3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="D3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="E3" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="F3" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="G3" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I3" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J3" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K3" t="n">
-        <v>20.21955114152135</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L3" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M3" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N3" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="P3" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="P3" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q3" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="F4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="G4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J4" t="n">
         <v>0.8007743026345088</v>
@@ -4492,16 +4492,16 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L4" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M4" t="n">
-        <v>20.6199382928386</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N4" t="n">
-        <v>20.6199382928386</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O4" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P4" t="n">
         <v>40.03871513172544</v>
@@ -4510,28 +4510,28 @@
         <v>29.92792848229982</v>
       </c>
       <c r="R4" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="S4" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="T4" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="U4" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="V4" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="W4" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X4" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="5">
@@ -4547,7 +4547,7 @@
         <v>29.92792848229982</v>
       </c>
       <c r="D5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E5" t="n">
         <v>21.02234760148574</v>
@@ -4565,40 +4565,40 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J5" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K5" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L5" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M5" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N5" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="O5" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P5" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q5" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V5" t="n">
         <v>29.92792848229982</v>
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I6" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J6" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K6" t="n">
-        <v>20.6199382928386</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L6" t="n">
-        <v>20.6199382928386</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6199382928386</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="N6" t="n">
-        <v>20.6199382928386</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="O6" t="n">
+        <v>20.21955114152135</v>
+      </c>
+      <c r="P6" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q6" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R6" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S6" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T6" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U6" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="V6" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W6" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X6" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C7" t="n">
-        <v>10.91156095206012</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D7" t="n">
         <v>10.91156095206012</v>
       </c>
       <c r="E7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H7" t="n">
         <v>0.8007743026345088</v>
@@ -4732,22 +4732,22 @@
         <v>10.71035629773655</v>
       </c>
       <c r="M7" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N7" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O7" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P7" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S7" t="n">
         <v>29.92792848229982</v>
@@ -4756,19 +4756,19 @@
         <v>29.92792848229982</v>
       </c>
       <c r="U7" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V7" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W7" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X7" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="C8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="D8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="E8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="F8" t="n">
-        <v>70.98297033550656</v>
+        <v>239.9282973874507</v>
       </c>
       <c r="G8" t="n">
-        <v>58.9193878300986</v>
+        <v>175.6355620032004</v>
       </c>
       <c r="H8" t="n">
-        <v>6.690234951256907</v>
+        <v>91.16289847722871</v>
       </c>
       <c r="I8" t="n">
-        <v>6.690234951256907</v>
+        <v>6.690234951256961</v>
       </c>
       <c r="J8" t="n">
-        <v>6.690234951256907</v>
+        <v>78.68877922406261</v>
       </c>
       <c r="K8" t="n">
-        <v>86.13677499743271</v>
+        <v>161.4804367458675</v>
       </c>
       <c r="L8" t="n">
-        <v>86.13677499743271</v>
+        <v>244.2720942676724</v>
       </c>
       <c r="M8" t="n">
-        <v>168.9284325192369</v>
+        <v>244.2720942676724</v>
       </c>
       <c r="N8" t="n">
-        <v>168.9284325192369</v>
+        <v>251.7200900410432</v>
       </c>
       <c r="O8" t="n">
-        <v>168.9284325192369</v>
+        <v>251.7200900410432</v>
       </c>
       <c r="P8" t="n">
-        <v>251.7200900410411</v>
+        <v>251.7200900410432</v>
       </c>
       <c r="Q8" t="n">
-        <v>334.5117475628454</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="R8" t="n">
-        <v>250.0390840368743</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="S8" t="n">
-        <v>165.5664205109032</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="T8" t="n">
-        <v>165.5664205109032</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="U8" t="n">
-        <v>165.5664205109032</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="V8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="W8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="X8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="Y8" t="n">
-        <v>81.09375698493218</v>
+        <v>250.0390840368763</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.545183787167</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="C9" t="n">
-        <v>159.545183787167</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="D9" t="n">
-        <v>75.07252026119592</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="E9" t="n">
-        <v>75.07252026119592</v>
+        <v>328.4905108391112</v>
       </c>
       <c r="F9" t="n">
-        <v>75.07252026119592</v>
+        <v>244.0178473131394</v>
       </c>
       <c r="G9" t="n">
-        <v>75.07252026119592</v>
+        <v>159.5451837871677</v>
       </c>
       <c r="H9" t="n">
-        <v>75.07252026119592</v>
+        <v>75.07252026119596</v>
       </c>
       <c r="I9" t="n">
-        <v>6.690234951256907</v>
+        <v>6.690234951256961</v>
       </c>
       <c r="J9" t="n">
-        <v>66.94438148436305</v>
+        <v>66.94438148436311</v>
       </c>
       <c r="K9" t="n">
-        <v>149.7360390061673</v>
+        <v>149.736039006168</v>
       </c>
       <c r="L9" t="n">
-        <v>149.7360390061673</v>
+        <v>168.9284325192383</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5276965279715</v>
+        <v>168.9284325192383</v>
       </c>
       <c r="N9" t="n">
-        <v>251.7200900410411</v>
+        <v>251.7200900410432</v>
       </c>
       <c r="O9" t="n">
-        <v>251.7200900410411</v>
+        <v>251.7200900410432</v>
       </c>
       <c r="P9" t="n">
-        <v>334.5117475628454</v>
+        <v>251.7200900410432</v>
       </c>
       <c r="Q9" t="n">
-        <v>334.5117475628454</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="R9" t="n">
-        <v>274.7274786577912</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="S9" t="n">
-        <v>274.7274786577912</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="T9" t="n">
-        <v>274.7274786577912</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="U9" t="n">
-        <v>190.2548151318201</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="V9" t="n">
-        <v>190.2548151318201</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="W9" t="n">
-        <v>159.545183787167</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="X9" t="n">
-        <v>159.545183787167</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="Y9" t="n">
-        <v>159.545183787167</v>
+        <v>334.5117475628481</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>260.1082255291701</v>
+        <v>151.220137063056</v>
       </c>
       <c r="C10" t="n">
-        <v>260.1082255291701</v>
+        <v>151.220137063056</v>
       </c>
       <c r="D10" t="n">
-        <v>260.1082255291701</v>
+        <v>151.220137063056</v>
       </c>
       <c r="E10" t="n">
-        <v>175.635562003199</v>
+        <v>151.220137063056</v>
       </c>
       <c r="F10" t="n">
-        <v>91.16289847722797</v>
+        <v>151.220137063056</v>
       </c>
       <c r="G10" t="n">
-        <v>91.16289847722797</v>
+        <v>151.220137063056</v>
       </c>
       <c r="H10" t="n">
-        <v>91.16289847722797</v>
+        <v>66.74747353708423</v>
       </c>
       <c r="I10" t="n">
-        <v>6.690234951256907</v>
+        <v>66.74747353708423</v>
       </c>
       <c r="J10" t="n">
-        <v>6.690234951256907</v>
+        <v>6.690234951256961</v>
       </c>
       <c r="K10" t="n">
-        <v>23.16829126929488</v>
+        <v>40.29442269590037</v>
       </c>
       <c r="L10" t="n">
-        <v>105.9599487910991</v>
+        <v>123.0860802177053</v>
       </c>
       <c r="M10" t="n">
-        <v>105.9599487910991</v>
+        <v>205.8777377395102</v>
       </c>
       <c r="N10" t="n">
-        <v>188.7516063129033</v>
+        <v>271.5432638347103</v>
       </c>
       <c r="O10" t="n">
-        <v>271.5432638347075</v>
+        <v>271.5432638347103</v>
       </c>
       <c r="P10" t="n">
-        <v>334.5117475628454</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="Q10" t="n">
-        <v>334.5117475628454</v>
+        <v>334.5117475628481</v>
       </c>
       <c r="R10" t="n">
-        <v>334.5117475628454</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="S10" t="n">
-        <v>334.5117475628454</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="T10" t="n">
-        <v>334.5117475628454</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="U10" t="n">
-        <v>334.5117475628454</v>
+        <v>250.0390840368763</v>
       </c>
       <c r="V10" t="n">
-        <v>334.5117475628454</v>
+        <v>235.6928005890277</v>
       </c>
       <c r="W10" t="n">
-        <v>260.1082255291701</v>
+        <v>151.220137063056</v>
       </c>
       <c r="X10" t="n">
-        <v>260.1082255291701</v>
+        <v>151.220137063056</v>
       </c>
       <c r="Y10" t="n">
-        <v>260.1082255291701</v>
+        <v>151.220137063056</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1288.786311333373</v>
+        <v>1214.114086935025</v>
       </c>
       <c r="C11" t="n">
-        <v>1011.891677988292</v>
+        <v>1214.114086935025</v>
       </c>
       <c r="D11" t="n">
-        <v>1011.891677988292</v>
+        <v>946.3292474843597</v>
       </c>
       <c r="E11" t="n">
-        <v>722.1450834165098</v>
+        <v>656.5826529125782</v>
       </c>
       <c r="F11" t="n">
-        <v>413.0330180487913</v>
+        <v>636.0011911186202</v>
       </c>
       <c r="G11" t="n">
-        <v>102.4382142898287</v>
+        <v>325.4063873596577</v>
       </c>
       <c r="H11" t="n">
         <v>102.4382142898287</v>
       </c>
       <c r="I11" t="n">
-        <v>52.78203123005686</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="J11" t="n">
         <v>163.8821940097077</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6257561473063</v>
+        <v>462.6257561473062</v>
       </c>
       <c r="L11" t="n">
-        <v>883.2135685909352</v>
+        <v>883.213568590935</v>
       </c>
       <c r="M11" t="n">
-        <v>1357.348206890918</v>
+        <v>1357.348206890917</v>
       </c>
       <c r="N11" t="n">
-        <v>1817.884010936859</v>
+        <v>1817.884010936858</v>
       </c>
       <c r="O11" t="n">
-        <v>2200.511922117836</v>
+        <v>2200.511922117835</v>
       </c>
       <c r="P11" t="n">
-        <v>2494.918532040155</v>
+        <v>2494.918532040153</v>
       </c>
       <c r="Q11" t="n">
-        <v>2639.101561502843</v>
+        <v>2639.101561502841</v>
       </c>
       <c r="R11" t="n">
-        <v>2639.101561502843</v>
+        <v>2639.101561502841</v>
       </c>
       <c r="S11" t="n">
-        <v>2567.623145933031</v>
+        <v>2567.623145933029</v>
       </c>
       <c r="T11" t="n">
-        <v>2450.361001538045</v>
+        <v>2450.361001538043</v>
       </c>
       <c r="U11" t="n">
-        <v>2300.552395171329</v>
+        <v>2300.552395171327</v>
       </c>
       <c r="V11" t="n">
-        <v>2068.612246389381</v>
+        <v>2068.612246389379</v>
       </c>
       <c r="W11" t="n">
-        <v>1854.781740685677</v>
+        <v>2068.612246389379</v>
       </c>
       <c r="X11" t="n">
-        <v>1577.790725529281</v>
+        <v>1791.621231232984</v>
       </c>
       <c r="Y11" t="n">
-        <v>1577.790725529281</v>
+        <v>1503.118501130933</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I12" t="n">
-        <v>52.78203123005686</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="J12" t="n">
-        <v>136.3248338729364</v>
+        <v>136.3248338729363</v>
       </c>
       <c r="K12" t="n">
-        <v>405.6194090872974</v>
+        <v>405.6194090872971</v>
       </c>
       <c r="L12" t="n">
-        <v>824.9626748374385</v>
+        <v>824.9626748374382</v>
       </c>
       <c r="M12" t="n">
-        <v>1372.453001722235</v>
+        <v>974.1440422108672</v>
       </c>
       <c r="N12" t="n">
-        <v>1549.519711947258</v>
+        <v>1549.519711947259</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.367809427796</v>
+        <v>2000.367809427797</v>
       </c>
       <c r="P12" t="n">
-        <v>2349.534036939291</v>
+        <v>2349.534036939292</v>
       </c>
       <c r="Q12" t="n">
         <v>2538.770921235764</v>
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>408.7547276246975</v>
+        <v>408.7547276246981</v>
       </c>
       <c r="C13" t="n">
-        <v>344.177883408489</v>
+        <v>344.1778834084896</v>
       </c>
       <c r="D13" t="n">
-        <v>296.145115558363</v>
+        <v>296.1451155583636</v>
       </c>
       <c r="E13" t="n">
-        <v>249.175226641793</v>
+        <v>249.1752266417936</v>
       </c>
       <c r="F13" t="n">
-        <v>201.7336969896813</v>
+        <v>201.7336969896819</v>
       </c>
       <c r="G13" t="n">
-        <v>138.0639252760181</v>
+        <v>138.0639252760186</v>
       </c>
       <c r="H13" t="n">
-        <v>85.60506775244994</v>
+        <v>85.60506775245022</v>
       </c>
       <c r="I13" t="n">
-        <v>52.78203123005686</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="J13" t="n">
-        <v>111.4793328475419</v>
+        <v>111.4793328475414</v>
       </c>
       <c r="K13" t="n">
-        <v>272.0419964293352</v>
+        <v>272.0419964293347</v>
       </c>
       <c r="L13" t="n">
-        <v>506.321981591266</v>
+        <v>506.3219815912653</v>
       </c>
       <c r="M13" t="n">
-        <v>759.6585468669126</v>
+        <v>759.6585468669118</v>
       </c>
       <c r="N13" t="n">
-        <v>1012.653685797839</v>
+        <v>1012.653685797838</v>
       </c>
       <c r="O13" t="n">
-        <v>1243.276015749894</v>
+        <v>1243.276015749893</v>
       </c>
       <c r="P13" t="n">
-        <v>1434.187407682403</v>
+        <v>1434.187407682402</v>
       </c>
       <c r="Q13" t="n">
-        <v>1516.670398780131</v>
+        <v>1516.67039878013</v>
       </c>
       <c r="R13" t="n">
-        <v>1481.668397222734</v>
+        <v>1481.668397222735</v>
       </c>
       <c r="S13" t="n">
-        <v>1376.672328223548</v>
+        <v>1376.672328223549</v>
       </c>
       <c r="T13" t="n">
         <v>1249.43341172767</v>
@@ -5233,16 +5233,16 @@
         <v>1067.293798535047</v>
       </c>
       <c r="V13" t="n">
-        <v>911.5976194155805</v>
+        <v>911.597619415581</v>
       </c>
       <c r="W13" t="n">
-        <v>730.4803432550909</v>
+        <v>730.4803432550913</v>
       </c>
       <c r="X13" t="n">
-        <v>604.2670044725778</v>
+        <v>604.2670044725783</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.2709709869661</v>
+        <v>487.2709709869667</v>
       </c>
     </row>
     <row r="14">
@@ -5261,67 +5261,67 @@
         <v>1234.859851058121</v>
       </c>
       <c r="E14" t="n">
-        <v>945.113256486339</v>
+        <v>945.1132564863387</v>
       </c>
       <c r="F14" t="n">
-        <v>636.0011911186205</v>
+        <v>636.0011911186203</v>
       </c>
       <c r="G14" t="n">
-        <v>325.4063873596579</v>
+        <v>325.4063873596577</v>
       </c>
       <c r="H14" t="n">
         <v>102.4382142898287</v>
       </c>
       <c r="I14" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J14" t="n">
-        <v>163.8821940097076</v>
+        <v>163.8821940097077</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6257561473059</v>
+        <v>462.6257561473058</v>
       </c>
       <c r="L14" t="n">
-        <v>883.2135685909344</v>
+        <v>883.2135685909345</v>
       </c>
       <c r="M14" t="n">
-        <v>1357.348206890916</v>
+        <v>1357.348206890917</v>
       </c>
       <c r="N14" t="n">
         <v>1817.884010936857</v>
       </c>
       <c r="O14" t="n">
-        <v>2200.511922117833</v>
+        <v>2200.511922117834</v>
       </c>
       <c r="P14" t="n">
-        <v>2494.918532040154</v>
+        <v>2494.918532040153</v>
       </c>
       <c r="Q14" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="R14" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="S14" t="n">
-        <v>2567.623145933029</v>
+        <v>2567.623145933028</v>
       </c>
       <c r="T14" t="n">
-        <v>2450.361001538043</v>
+        <v>2450.361001538042</v>
       </c>
       <c r="U14" t="n">
-        <v>2300.552395171328</v>
+        <v>2450.361001538042</v>
       </c>
       <c r="V14" t="n">
-        <v>2300.552395171328</v>
+        <v>2218.420852756095</v>
       </c>
       <c r="W14" t="n">
-        <v>2300.552395171328</v>
+        <v>1960.925047935807</v>
       </c>
       <c r="X14" t="n">
-        <v>2068.042053955918</v>
+        <v>1960.925047935807</v>
       </c>
       <c r="Y14" t="n">
-        <v>1779.539323853867</v>
+        <v>1960.925047935807</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.2127890768961</v>
       </c>
       <c r="E15" t="n">
-        <v>473.1847791337674</v>
+        <v>473.1847791337673</v>
       </c>
       <c r="F15" t="n">
         <v>338.4909810836417</v>
@@ -5352,28 +5352,28 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I15" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J15" t="n">
-        <v>52.78203123005683</v>
+        <v>136.3248338729362</v>
       </c>
       <c r="K15" t="n">
-        <v>322.0766064444176</v>
+        <v>405.6194090872971</v>
       </c>
       <c r="L15" t="n">
-        <v>741.4198721945585</v>
+        <v>426.6537153260716</v>
       </c>
       <c r="M15" t="n">
-        <v>1288.910199079354</v>
+        <v>974.1440422108675</v>
       </c>
       <c r="N15" t="n">
-        <v>1864.285868815746</v>
+        <v>1549.519711947259</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.133966296284</v>
+        <v>2000.367809427797</v>
       </c>
       <c r="P15" t="n">
-        <v>2538.770921235764</v>
+        <v>2349.534036939292</v>
       </c>
       <c r="Q15" t="n">
         <v>2538.770921235764</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>408.754727624698</v>
+        <v>408.7547276246984</v>
       </c>
       <c r="C16" t="n">
-        <v>344.1778834084895</v>
+        <v>344.1778834084899</v>
       </c>
       <c r="D16" t="n">
-        <v>296.1451155583635</v>
+        <v>296.1451155583638</v>
       </c>
       <c r="E16" t="n">
-        <v>249.1752266417935</v>
+        <v>249.1752266417939</v>
       </c>
       <c r="F16" t="n">
-        <v>201.7336969896818</v>
+        <v>201.7336969896821</v>
       </c>
       <c r="G16" t="n">
-        <v>138.0639252760184</v>
+        <v>138.0639252760188</v>
       </c>
       <c r="H16" t="n">
-        <v>85.60506775245022</v>
+        <v>85.60506775245021</v>
       </c>
       <c r="I16" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J16" t="n">
-        <v>111.4793328475417</v>
+        <v>111.4793328475413</v>
       </c>
       <c r="K16" t="n">
-        <v>272.0419964293351</v>
+        <v>272.0419964293346</v>
       </c>
       <c r="L16" t="n">
-        <v>506.3219815912657</v>
+        <v>506.3219815912653</v>
       </c>
       <c r="M16" t="n">
-        <v>759.6585468669122</v>
+        <v>759.6585468669118</v>
       </c>
       <c r="N16" t="n">
         <v>1012.653685797838</v>
@@ -5452,10 +5452,10 @@
         <v>1243.276015749893</v>
       </c>
       <c r="P16" t="n">
-        <v>1434.187407682402</v>
+        <v>1434.187407682401</v>
       </c>
       <c r="Q16" t="n">
-        <v>1516.67039878013</v>
+        <v>1516.670398780129</v>
       </c>
       <c r="R16" t="n">
         <v>1481.668397222735</v>
@@ -5464,22 +5464,22 @@
         <v>1376.672328223549</v>
       </c>
       <c r="T16" t="n">
-        <v>1249.43341172767</v>
+        <v>1249.433411727671</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.293798535047</v>
+        <v>1067.293798535048</v>
       </c>
       <c r="V16" t="n">
-        <v>911.597619415581</v>
+        <v>911.5976194155814</v>
       </c>
       <c r="W16" t="n">
-        <v>730.4803432550914</v>
+        <v>730.4803432550918</v>
       </c>
       <c r="X16" t="n">
-        <v>604.2670044725784</v>
+        <v>604.2670044725787</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.2709709869666</v>
+        <v>487.270970986967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1398.4839156458</v>
+        <v>1398.483915645799</v>
       </c>
       <c r="C17" t="n">
-        <v>1176.822486492101</v>
+        <v>1176.8224864921</v>
       </c>
       <c r="D17" t="n">
-        <v>964.2708512328184</v>
+        <v>964.2708512328176</v>
       </c>
       <c r="E17" t="n">
-        <v>729.7574608524188</v>
+        <v>729.7574608524184</v>
       </c>
       <c r="F17" t="n">
-        <v>475.8785996760831</v>
+        <v>475.8785996760826</v>
       </c>
       <c r="G17" t="n">
-        <v>220.5170001085032</v>
+        <v>220.5170001085031</v>
       </c>
       <c r="H17" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="I17" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J17" t="n">
         <v>163.8821940097077</v>
@@ -5519,7 +5519,7 @@
         <v>462.6257561473061</v>
       </c>
       <c r="L17" t="n">
-        <v>883.2135685909349</v>
+        <v>883.2135685909348</v>
       </c>
       <c r="M17" t="n">
         <v>1357.348206890917</v>
@@ -5528,37 +5528,37 @@
         <v>1817.884010936858</v>
       </c>
       <c r="O17" t="n">
-        <v>2200.511922117834</v>
+        <v>2200.511922117833</v>
       </c>
       <c r="P17" t="n">
         <v>2494.918532040153</v>
       </c>
       <c r="Q17" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="R17" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="S17" t="n">
-        <v>2622.856350124412</v>
+        <v>2622.856350124411</v>
       </c>
       <c r="T17" t="n">
-        <v>2560.827409920809</v>
+        <v>2560.827409920807</v>
       </c>
       <c r="U17" t="n">
-        <v>2466.252007745476</v>
+        <v>2466.252007745475</v>
       </c>
       <c r="V17" t="n">
-        <v>2289.545063154911</v>
+        <v>2289.54506315491</v>
       </c>
       <c r="W17" t="n">
-        <v>2087.282462526006</v>
+        <v>2087.282462526005</v>
       </c>
       <c r="X17" t="n">
-        <v>1865.524651560993</v>
+        <v>1865.524651560992</v>
       </c>
       <c r="Y17" t="n">
-        <v>1632.255125650325</v>
+        <v>1632.255125650324</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I18" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J18" t="n">
-        <v>136.3248338729363</v>
+        <v>136.3248338729362</v>
       </c>
       <c r="K18" t="n">
-        <v>136.3248338729363</v>
+        <v>405.6194090872971</v>
       </c>
       <c r="L18" t="n">
-        <v>555.6680996230773</v>
+        <v>824.962674837438</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.158426507873</v>
+        <v>1372.453001722234</v>
       </c>
       <c r="N18" t="n">
-        <v>1678.534096244265</v>
+        <v>1738.756596243732</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.382193724803</v>
+        <v>2189.60469372427</v>
       </c>
       <c r="P18" t="n">
-        <v>2478.548421236298</v>
+        <v>2538.770921235764</v>
       </c>
       <c r="Q18" t="n">
         <v>2538.770921235764</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.56223877716332</v>
+        <v>70.56223877716326</v>
       </c>
       <c r="C19" t="n">
-        <v>61.21859875233751</v>
+        <v>61.21859875233747</v>
       </c>
       <c r="D19" t="n">
-        <v>61.21859875233751</v>
+        <v>61.21859875233747</v>
       </c>
       <c r="E19" t="n">
-        <v>61.21859875233751</v>
+        <v>61.21859875233747</v>
       </c>
       <c r="F19" t="n">
-        <v>61.21859875233751</v>
+        <v>61.21859875233747</v>
       </c>
       <c r="G19" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="K19" t="n">
         <v>110.3958480836489</v>
       </c>
       <c r="L19" t="n">
-        <v>241.7269865173785</v>
+        <v>241.7269865173784</v>
       </c>
       <c r="M19" t="n">
-        <v>392.1147050648239</v>
+        <v>392.1147050648237</v>
       </c>
       <c r="N19" t="n">
-        <v>542.160997267549</v>
+        <v>542.1609972675487</v>
       </c>
       <c r="O19" t="n">
-        <v>669.8344804914025</v>
+        <v>669.8344804914022</v>
       </c>
       <c r="P19" t="n">
-        <v>757.7970256957103</v>
+        <v>757.7970256957101</v>
       </c>
       <c r="Q19" t="n">
-        <v>757.7970256957103</v>
+        <v>757.7970256957101</v>
       </c>
       <c r="R19" t="n">
-        <v>757.7970256957103</v>
+        <v>701.6102748441385</v>
       </c>
       <c r="S19" t="n">
-        <v>708.0341608879069</v>
+        <v>651.8474100363351</v>
       </c>
       <c r="T19" t="n">
-        <v>636.0284485834109</v>
+        <v>579.8416977318392</v>
       </c>
       <c r="U19" t="n">
-        <v>509.1220395821706</v>
+        <v>452.9352887305989</v>
       </c>
       <c r="V19" t="n">
-        <v>408.6590646540871</v>
+        <v>352.4723138025154</v>
       </c>
       <c r="W19" t="n">
-        <v>282.7749926849801</v>
+        <v>226.5882418334085</v>
       </c>
       <c r="X19" t="n">
-        <v>211.7948580938498</v>
+        <v>155.6081072422782</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.84527794804924</v>
+        <v>93.84527794804916</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1398.483915645799</v>
+        <v>1398.4839156458</v>
       </c>
       <c r="C20" t="n">
-        <v>1176.8224864921</v>
+        <v>1176.822486492101</v>
       </c>
       <c r="D20" t="n">
-        <v>964.2708512328179</v>
+        <v>964.2708512328185</v>
       </c>
       <c r="E20" t="n">
-        <v>729.7574608524187</v>
+        <v>729.7574608524192</v>
       </c>
       <c r="F20" t="n">
-        <v>475.878599676083</v>
+        <v>475.8785996760834</v>
       </c>
       <c r="G20" t="n">
         <v>220.5170001085032</v>
       </c>
       <c r="H20" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="I20" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J20" t="n">
         <v>163.8821940097077</v>
@@ -5762,34 +5762,34 @@
         <v>1357.348206890917</v>
       </c>
       <c r="N20" t="n">
-        <v>1817.884010936858</v>
+        <v>1817.884010936857</v>
       </c>
       <c r="O20" t="n">
-        <v>2200.511922117834</v>
+        <v>2200.511922117833</v>
       </c>
       <c r="P20" t="n">
         <v>2494.918532040153</v>
       </c>
       <c r="Q20" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="R20" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="S20" t="n">
-        <v>2622.856350124412</v>
+        <v>2622.856350124411</v>
       </c>
       <c r="T20" t="n">
         <v>2560.827409920808</v>
       </c>
       <c r="U20" t="n">
-        <v>2466.252007745476</v>
+        <v>2466.252007745475</v>
       </c>
       <c r="V20" t="n">
         <v>2289.54506315491</v>
       </c>
       <c r="W20" t="n">
-        <v>2087.282462526005</v>
+        <v>2087.282462526006</v>
       </c>
       <c r="X20" t="n">
         <v>1865.524651560993</v>
@@ -5814,7 +5814,7 @@
         <v>620.2127890768961</v>
       </c>
       <c r="E21" t="n">
-        <v>473.1847791337674</v>
+        <v>473.1847791337673</v>
       </c>
       <c r="F21" t="n">
         <v>338.4909810836417</v>
@@ -5826,10 +5826,10 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I21" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J21" t="n">
-        <v>136.3248338729363</v>
+        <v>136.3248338729362</v>
       </c>
       <c r="K21" t="n">
         <v>405.6194090872971</v>
@@ -5838,7 +5838,7 @@
         <v>824.962674837438</v>
       </c>
       <c r="M21" t="n">
-        <v>974.1440422108674</v>
+        <v>1372.453001722234</v>
       </c>
       <c r="N21" t="n">
         <v>1549.519711947259</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.56223877716332</v>
+        <v>126.7489896287346</v>
       </c>
       <c r="C22" t="n">
-        <v>61.21859875233751</v>
+        <v>117.4053496039088</v>
       </c>
       <c r="D22" t="n">
-        <v>61.21859875233751</v>
+        <v>117.4053496039088</v>
       </c>
       <c r="E22" t="n">
-        <v>61.21859875233751</v>
+        <v>117.4053496039088</v>
       </c>
       <c r="F22" t="n">
-        <v>61.21859875233751</v>
+        <v>117.4053496039088</v>
       </c>
       <c r="G22" t="n">
-        <v>52.78203123005683</v>
+        <v>108.9687820816281</v>
       </c>
       <c r="H22" t="n">
-        <v>52.78203123005683</v>
+        <v>108.9687820816281</v>
       </c>
       <c r="I22" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J22" t="n">
-        <v>52.78203123005683</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="K22" t="n">
         <v>110.3958480836489</v>
@@ -5941,19 +5941,19 @@
         <v>636.0284485834106</v>
       </c>
       <c r="U22" t="n">
-        <v>452.9352887305991</v>
+        <v>509.1220395821704</v>
       </c>
       <c r="V22" t="n">
-        <v>352.4723138025156</v>
+        <v>408.6590646540869</v>
       </c>
       <c r="W22" t="n">
-        <v>226.5882418334086</v>
+        <v>282.7749926849799</v>
       </c>
       <c r="X22" t="n">
-        <v>155.6081072422783</v>
+        <v>211.7948580938496</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.84527794804924</v>
+        <v>150.0320287996205</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>1398.483915645799</v>
       </c>
       <c r="C23" t="n">
-        <v>1176.822486492101</v>
+        <v>1176.8224864921</v>
       </c>
       <c r="D23" t="n">
-        <v>964.2708512328181</v>
+        <v>964.2708512328174</v>
       </c>
       <c r="E23" t="n">
-        <v>729.7574608524187</v>
+        <v>729.7574608524183</v>
       </c>
       <c r="F23" t="n">
-        <v>475.8785996760835</v>
+        <v>475.8785996760826</v>
       </c>
       <c r="G23" t="n">
         <v>220.5170001085032</v>
       </c>
       <c r="H23" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="I23" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="J23" t="n">
-        <v>163.882194009708</v>
+        <v>163.8821940097081</v>
       </c>
       <c r="K23" t="n">
         <v>462.6257561473062</v>
@@ -6014,25 +6014,25 @@
         <v>2639.101561502841</v>
       </c>
       <c r="S23" t="n">
-        <v>2622.856350124411</v>
+        <v>2622.856350124412</v>
       </c>
       <c r="T23" t="n">
-        <v>2560.827409920809</v>
+        <v>2560.827409920808</v>
       </c>
       <c r="U23" t="n">
-        <v>2466.252007745476</v>
+        <v>2466.252007745475</v>
       </c>
       <c r="V23" t="n">
-        <v>2289.545063154911</v>
+        <v>2289.54506315491</v>
       </c>
       <c r="W23" t="n">
         <v>2087.282462526005</v>
       </c>
       <c r="X23" t="n">
-        <v>1865.524651560993</v>
+        <v>1865.524651560992</v>
       </c>
       <c r="Y23" t="n">
-        <v>1632.255125650325</v>
+        <v>1632.255125650324</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.2127890768961</v>
       </c>
       <c r="E24" t="n">
-        <v>473.1847791337673</v>
+        <v>473.1847791337674</v>
       </c>
       <c r="F24" t="n">
         <v>338.4909810836417</v>
@@ -6063,10 +6063,10 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I24" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="J24" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="K24" t="n">
         <v>322.0766064444177</v>
@@ -6078,10 +6078,10 @@
         <v>1288.910199079354</v>
       </c>
       <c r="N24" t="n">
-        <v>1864.285868815746</v>
+        <v>1549.519711947259</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.133966296284</v>
+        <v>2000.367809427797</v>
       </c>
       <c r="P24" t="n">
         <v>2349.534036939292</v>
@@ -6133,19 +6133,19 @@
         <v>117.4053496039088</v>
       </c>
       <c r="F25" t="n">
-        <v>61.2185987523375</v>
+        <v>117.4053496039088</v>
       </c>
       <c r="G25" t="n">
-        <v>52.78203123005682</v>
+        <v>108.9687820816281</v>
       </c>
       <c r="H25" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="I25" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="J25" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005683</v>
       </c>
       <c r="K25" t="n">
         <v>110.3958480836489</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1330.763044997441</v>
+        <v>1737.36603605175</v>
       </c>
       <c r="C26" t="n">
-        <v>1053.868411652359</v>
+        <v>1460.471402706668</v>
       </c>
       <c r="D26" t="n">
-        <v>786.0835722016939</v>
+        <v>1192.686563256003</v>
       </c>
       <c r="E26" t="n">
-        <v>496.3369776299119</v>
+        <v>902.939968684221</v>
       </c>
       <c r="F26" t="n">
-        <v>187.224912262194</v>
+        <v>593.8279033165026</v>
       </c>
       <c r="G26" t="n">
-        <v>60.26492648771089</v>
+        <v>283.23309955754</v>
       </c>
       <c r="H26" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="I26" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="J26" t="n">
-        <v>274.3139359955629</v>
+        <v>274.313935995563</v>
       </c>
       <c r="K26" t="n">
-        <v>573.0574981331613</v>
+        <v>676.0063448613625</v>
       </c>
       <c r="L26" t="n">
-        <v>993.6453105767899</v>
+        <v>1199.543004033193</v>
       </c>
       <c r="M26" t="n">
-        <v>1467.779948876772</v>
+        <v>1731.492969773622</v>
       </c>
       <c r="N26" t="n">
-        <v>2031.264599650914</v>
+        <v>2192.028773819563</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.707838272337</v>
+        <v>2574.656685000539</v>
       </c>
       <c r="P26" t="n">
-        <v>2869.063294922857</v>
+        <v>2869.063294922858</v>
       </c>
       <c r="Q26" t="n">
-        <v>3013.246324385545</v>
+        <v>3013.246324385546</v>
       </c>
       <c r="R26" t="n">
-        <v>3013.246324385545</v>
+        <v>3013.246324385546</v>
       </c>
       <c r="S26" t="n">
-        <v>2941.767908815732</v>
+        <v>3013.246324385546</v>
       </c>
       <c r="T26" t="n">
-        <v>2824.505764420746</v>
+        <v>3013.246324385546</v>
       </c>
       <c r="U26" t="n">
-        <v>2674.69715805403</v>
+        <v>3013.246324385546</v>
       </c>
       <c r="V26" t="n">
-        <v>2442.757009272083</v>
+        <v>2781.306175603599</v>
       </c>
       <c r="W26" t="n">
-        <v>2185.261204451795</v>
+        <v>2523.810370783311</v>
       </c>
       <c r="X26" t="n">
-        <v>1908.270189295399</v>
+        <v>2246.819355626916</v>
       </c>
       <c r="Y26" t="n">
-        <v>1619.767459193349</v>
+        <v>1958.316625524865</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>119.9880105176872</v>
       </c>
       <c r="I27" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="J27" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="K27" t="n">
         <v>329.5595017020718</v>
@@ -6312,10 +6312,10 @@
         <v>748.9027674522129</v>
       </c>
       <c r="M27" t="n">
-        <v>981.6269374685216</v>
+        <v>1296.393094337009</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.002607204914</v>
+        <v>1871.768764073401</v>
       </c>
       <c r="O27" t="n">
         <v>2007.850704685452</v>
@@ -6361,7 +6361,7 @@
         <v>416.2376228823522</v>
       </c>
       <c r="C28" t="n">
-        <v>351.6607786661437</v>
+        <v>351.6607786661436</v>
       </c>
       <c r="D28" t="n">
         <v>303.6280108160176</v>
@@ -6376,10 +6376,10 @@
         <v>145.5468205336725</v>
       </c>
       <c r="H28" t="n">
-        <v>93.08796301010432</v>
+        <v>93.08796301010437</v>
       </c>
       <c r="I28" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="J28" t="n">
         <v>118.9622281051958</v>
@@ -6391,10 +6391,10 @@
         <v>513.8048768489198</v>
       </c>
       <c r="M28" t="n">
-        <v>767.1414421245657</v>
+        <v>767.1414421245663</v>
       </c>
       <c r="N28" t="n">
-        <v>1020.136581055492</v>
+        <v>1020.136581055493</v>
       </c>
       <c r="O28" t="n">
         <v>1250.758911007547</v>
@@ -6412,22 +6412,22 @@
         <v>1384.155223481203</v>
       </c>
       <c r="T28" t="n">
-        <v>1256.916306985324</v>
+        <v>1256.916306985325</v>
       </c>
       <c r="U28" t="n">
         <v>1074.776693792702</v>
       </c>
       <c r="V28" t="n">
-        <v>919.0805146732354</v>
+        <v>919.0805146732355</v>
       </c>
       <c r="W28" t="n">
-        <v>737.9632385127456</v>
+        <v>737.9632385127458</v>
       </c>
       <c r="X28" t="n">
-        <v>611.7498997302326</v>
+        <v>611.7498997302328</v>
       </c>
       <c r="Y28" t="n">
-        <v>494.7538662446209</v>
+        <v>494.7538662446208</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1514.39786298192</v>
+        <v>1712.511800146107</v>
       </c>
       <c r="C29" t="n">
-        <v>1237.503229636838</v>
+        <v>1435.617166801025</v>
       </c>
       <c r="D29" t="n">
-        <v>969.7183901861729</v>
+        <v>1167.83232735036</v>
       </c>
       <c r="E29" t="n">
-        <v>679.9717956143909</v>
+        <v>878.0857327785779</v>
       </c>
       <c r="F29" t="n">
-        <v>370.8597302466735</v>
+        <v>568.9736674108594</v>
       </c>
       <c r="G29" t="n">
-        <v>60.26492648771089</v>
+        <v>258.3788636518968</v>
       </c>
       <c r="H29" t="n">
-        <v>60.26492648771089</v>
+        <v>109.9211095474828</v>
       </c>
       <c r="I29" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="J29" t="n">
-        <v>274.3139359955629</v>
+        <v>171.3650892673618</v>
       </c>
       <c r="K29" t="n">
-        <v>630.8728255736077</v>
+        <v>470.1086514049602</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.460638017236</v>
+        <v>993.6453105767901</v>
       </c>
       <c r="M29" t="n">
-        <v>1525.595276317218</v>
+        <v>1467.779948876772</v>
       </c>
       <c r="N29" t="n">
-        <v>2089.07992709136</v>
+        <v>1928.315752922713</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.707838272337</v>
+        <v>2325.705074418953</v>
       </c>
       <c r="P29" t="n">
-        <v>2766.114448194656</v>
+        <v>2723.060531069473</v>
       </c>
       <c r="Q29" t="n">
-        <v>3013.246324385545</v>
+        <v>2970.192407260362</v>
       </c>
       <c r="R29" t="n">
-        <v>3013.246324385545</v>
+        <v>3013.246324385546</v>
       </c>
       <c r="S29" t="n">
-        <v>2941.767908815732</v>
+        <v>2941.767908815734</v>
       </c>
       <c r="T29" t="n">
-        <v>2824.505764420746</v>
+        <v>2824.505764420749</v>
       </c>
       <c r="U29" t="n">
-        <v>2674.69715805403</v>
+        <v>2824.505764420749</v>
       </c>
       <c r="V29" t="n">
-        <v>2442.757009272083</v>
+        <v>2824.505764420749</v>
       </c>
       <c r="W29" t="n">
-        <v>2185.261204451795</v>
+        <v>2567.009959600461</v>
       </c>
       <c r="X29" t="n">
-        <v>1908.2701892954</v>
+        <v>2290.018944444066</v>
       </c>
       <c r="Y29" t="n">
-        <v>1619.767459193349</v>
+        <v>2001.516214342015</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>119.9880105176872</v>
       </c>
       <c r="I30" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="J30" t="n">
-        <v>143.8077291305903</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="K30" t="n">
-        <v>413.1023043449512</v>
+        <v>329.5595017020718</v>
       </c>
       <c r="L30" t="n">
-        <v>832.4455700950923</v>
+        <v>748.9027674522127</v>
       </c>
       <c r="M30" t="n">
-        <v>1379.935896979888</v>
+        <v>1296.393094337009</v>
       </c>
       <c r="N30" t="n">
-        <v>1955.31156671628</v>
+        <v>1557.002607204914</v>
       </c>
       <c r="O30" t="n">
         <v>2007.850704685452</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2376228823523</v>
+        <v>416.2376228823521</v>
       </c>
       <c r="C31" t="n">
-        <v>351.6607786661438</v>
+        <v>351.6607786661436</v>
       </c>
       <c r="D31" t="n">
-        <v>303.6280108160176</v>
+        <v>303.6280108160175</v>
       </c>
       <c r="E31" t="n">
-        <v>256.6581218994477</v>
+        <v>256.6581218994476</v>
       </c>
       <c r="F31" t="n">
-        <v>209.216592247336</v>
+        <v>209.2165922473359</v>
       </c>
       <c r="G31" t="n">
-        <v>145.5468205336726</v>
+        <v>145.5468205336725</v>
       </c>
       <c r="H31" t="n">
-        <v>93.0879630101043</v>
+        <v>93.08796301010433</v>
       </c>
       <c r="I31" t="n">
-        <v>60.26492648771089</v>
+        <v>60.26492648771093</v>
       </c>
       <c r="J31" t="n">
-        <v>118.9622281051959</v>
+        <v>118.9622281051958</v>
       </c>
       <c r="K31" t="n">
         <v>279.5248916869891</v>
@@ -6631,40 +6631,40 @@
         <v>767.1414421245663</v>
       </c>
       <c r="N31" t="n">
-        <v>1020.136581055492</v>
+        <v>1020.136581055493</v>
       </c>
       <c r="O31" t="n">
-        <v>1250.758911007547</v>
+        <v>1250.758911007546</v>
       </c>
       <c r="P31" t="n">
         <v>1441.670302940056</v>
       </c>
       <c r="Q31" t="n">
-        <v>1524.153294037784</v>
+        <v>1524.153294037783</v>
       </c>
       <c r="R31" t="n">
-        <v>1489.15129248039</v>
+        <v>1489.151292480389</v>
       </c>
       <c r="S31" t="n">
         <v>1384.155223481203</v>
       </c>
       <c r="T31" t="n">
-        <v>1256.916306985325</v>
+        <v>1256.916306985324</v>
       </c>
       <c r="U31" t="n">
-        <v>1074.776693792702</v>
+        <v>1074.776693792701</v>
       </c>
       <c r="V31" t="n">
-        <v>919.0805146732355</v>
+        <v>919.0805146732351</v>
       </c>
       <c r="W31" t="n">
-        <v>737.9632385127459</v>
+        <v>737.9632385127454</v>
       </c>
       <c r="X31" t="n">
-        <v>611.7498997302326</v>
+        <v>611.7498997302324</v>
       </c>
       <c r="Y31" t="n">
-        <v>494.753866244621</v>
+        <v>494.7538662446207</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>988.1723703682928</v>
       </c>
       <c r="E32" t="n">
-        <v>748.0819588562827</v>
+        <v>748.0819588562828</v>
       </c>
       <c r="F32" t="n">
         <v>488.6260765483362</v>
       </c>
       <c r="G32" t="n">
-        <v>227.6874558491457</v>
+        <v>227.6874558491456</v>
       </c>
       <c r="H32" t="n">
-        <v>54.37546583908849</v>
+        <v>54.37546583908848</v>
       </c>
       <c r="I32" t="n">
-        <v>54.37546583908849</v>
+        <v>54.37546583908848</v>
       </c>
       <c r="J32" t="n">
         <v>165.4756286187393</v>
@@ -6704,28 +6704,28 @@
         <v>464.2191907563378</v>
       </c>
       <c r="L32" t="n">
-        <v>962.8852990425182</v>
+        <v>884.8070031999664</v>
       </c>
       <c r="M32" t="n">
-        <v>1437.0199373425</v>
+        <v>1358.941641499948</v>
       </c>
       <c r="N32" t="n">
-        <v>1897.555741388441</v>
+        <v>1819.477445545889</v>
       </c>
       <c r="O32" t="n">
-        <v>2280.183652569418</v>
+        <v>2202.105356726865</v>
       </c>
       <c r="P32" t="n">
-        <v>2574.590262491737</v>
+        <v>2496.511966649185</v>
       </c>
       <c r="Q32" t="n">
-        <v>2718.773291954425</v>
+        <v>2640.694996111873</v>
       </c>
       <c r="R32" t="n">
-        <v>2718.773291954425</v>
+        <v>2718.773291954424</v>
       </c>
       <c r="S32" t="n">
-        <v>2696.951059444384</v>
+        <v>2696.951059444383</v>
       </c>
       <c r="T32" t="n">
         <v>2629.34509810917</v>
@@ -6774,7 +6774,7 @@
         <v>114.0985498690648</v>
       </c>
       <c r="I33" t="n">
-        <v>54.37546583908849</v>
+        <v>54.37546583908848</v>
       </c>
       <c r="J33" t="n">
         <v>137.9182684819679</v>
@@ -6786,7 +6786,7 @@
         <v>826.5561094464697</v>
       </c>
       <c r="M33" t="n">
-        <v>975.737476819899</v>
+        <v>1374.046436331266</v>
       </c>
       <c r="N33" t="n">
         <v>1551.113146556291</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.11239011321288</v>
+        <v>86.11239011321287</v>
       </c>
       <c r="C34" t="n">
-        <v>71.19172895677626</v>
+        <v>71.19172895677625</v>
       </c>
       <c r="D34" t="n">
-        <v>71.19172895677626</v>
+        <v>71.19172895677625</v>
       </c>
       <c r="E34" t="n">
-        <v>71.19172895677626</v>
+        <v>71.19172895677625</v>
       </c>
       <c r="F34" t="n">
-        <v>71.19172895677626</v>
+        <v>71.19172895677625</v>
       </c>
       <c r="G34" t="n">
-        <v>57.17814030288476</v>
+        <v>57.17814030288474</v>
       </c>
       <c r="H34" t="n">
-        <v>54.37546583908849</v>
+        <v>54.37546583908848</v>
       </c>
       <c r="I34" t="n">
-        <v>54.37546583908849</v>
+        <v>54.37546583908848</v>
       </c>
       <c r="J34" t="n">
-        <v>54.37546583908849</v>
+        <v>54.37546583908848</v>
       </c>
       <c r="K34" t="n">
-        <v>111.9892826926806</v>
+        <v>111.9892826926805</v>
       </c>
       <c r="L34" t="n">
         <v>243.3204211264101</v>
@@ -6868,16 +6868,16 @@
         <v>393.7081396738554</v>
       </c>
       <c r="N34" t="n">
-        <v>543.7544318765805</v>
+        <v>543.7544318765804</v>
       </c>
       <c r="O34" t="n">
-        <v>671.427915100434</v>
+        <v>671.4279151004339</v>
       </c>
       <c r="P34" t="n">
-        <v>761.7765952330749</v>
+        <v>759.3904603047417</v>
       </c>
       <c r="Q34" t="n">
-        <v>761.7765952330749</v>
+        <v>759.3904603047417</v>
       </c>
       <c r="R34" t="n">
         <v>761.7765952330749</v>
@@ -6895,10 +6895,10 @@
         <v>390.3305496650084</v>
       </c>
       <c r="W34" t="n">
-        <v>258.8694565642907</v>
+        <v>258.8694565642906</v>
       </c>
       <c r="X34" t="n">
-        <v>182.3123008415495</v>
+        <v>182.3123008415494</v>
       </c>
       <c r="Y34" t="n">
         <v>114.9724504157096</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1398.483915645799</v>
+        <v>1398.483915645798</v>
       </c>
       <c r="C35" t="n">
-        <v>1176.822486492101</v>
+        <v>1176.822486492099</v>
       </c>
       <c r="D35" t="n">
-        <v>964.2708512328184</v>
+        <v>964.2708512328165</v>
       </c>
       <c r="E35" t="n">
-        <v>729.7574608524192</v>
+        <v>729.7574608524174</v>
       </c>
       <c r="F35" t="n">
-        <v>475.8785996760835</v>
+        <v>475.8785996760816</v>
       </c>
       <c r="G35" t="n">
-        <v>220.5170001085031</v>
+        <v>220.5170001085032</v>
       </c>
       <c r="H35" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="I35" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J35" t="n">
-        <v>163.882194009708</v>
+        <v>163.8821940097073</v>
       </c>
       <c r="K35" t="n">
-        <v>462.6257561473062</v>
+        <v>462.6257561473058</v>
       </c>
       <c r="L35" t="n">
-        <v>883.213568590935</v>
+        <v>883.2135685909343</v>
       </c>
       <c r="M35" t="n">
-        <v>1357.348206890917</v>
+        <v>1357.348206890916</v>
       </c>
       <c r="N35" t="n">
-        <v>1817.884010936858</v>
+        <v>1817.884010936857</v>
       </c>
       <c r="O35" t="n">
         <v>2200.511922117834</v>
@@ -6956,31 +6956,31 @@
         <v>2494.918532040153</v>
       </c>
       <c r="Q35" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="R35" t="n">
-        <v>2639.101561502841</v>
+        <v>2639.10156150284</v>
       </c>
       <c r="S35" t="n">
-        <v>2622.856350124412</v>
+        <v>2622.856350124411</v>
       </c>
       <c r="T35" t="n">
-        <v>2560.827409920808</v>
+        <v>2560.827409920807</v>
       </c>
       <c r="U35" t="n">
-        <v>2466.252007745476</v>
+        <v>2466.252007745474</v>
       </c>
       <c r="V35" t="n">
-        <v>2289.545063154911</v>
+        <v>2289.545063154909</v>
       </c>
       <c r="W35" t="n">
         <v>2087.282462526005</v>
       </c>
       <c r="X35" t="n">
-        <v>1865.524651560993</v>
+        <v>1865.524651560992</v>
       </c>
       <c r="Y35" t="n">
-        <v>1632.255125650325</v>
+        <v>1632.255125650324</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I36" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J36" t="n">
         <v>136.3248338729362</v>
@@ -7020,19 +7020,19 @@
         <v>405.6194090872971</v>
       </c>
       <c r="L36" t="n">
-        <v>426.6537153260715</v>
+        <v>824.962674837438</v>
       </c>
       <c r="M36" t="n">
-        <v>974.1440422108674</v>
+        <v>1372.453001722234</v>
       </c>
       <c r="N36" t="n">
-        <v>1549.519711947259</v>
+        <v>1738.756596243732</v>
       </c>
       <c r="O36" t="n">
-        <v>2000.367809427797</v>
+        <v>2189.60469372427</v>
       </c>
       <c r="P36" t="n">
-        <v>2349.534036939292</v>
+        <v>2538.770921235764</v>
       </c>
       <c r="Q36" t="n">
         <v>2538.770921235764</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.7489896287348</v>
+        <v>70.56223877716332</v>
       </c>
       <c r="C37" t="n">
-        <v>117.405349603909</v>
+        <v>61.2185987523375</v>
       </c>
       <c r="D37" t="n">
-        <v>117.405349603909</v>
+        <v>61.2185987523375</v>
       </c>
       <c r="E37" t="n">
-        <v>61.21859875233747</v>
+        <v>61.2185987523375</v>
       </c>
       <c r="F37" t="n">
-        <v>61.21859875233747</v>
+        <v>61.2185987523375</v>
       </c>
       <c r="G37" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="H37" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="I37" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="J37" t="n">
-        <v>52.78203123005682</v>
+        <v>52.78203123005681</v>
       </c>
       <c r="K37" t="n">
         <v>110.3958480836489</v>
@@ -7120,25 +7120,25 @@
         <v>757.7970256957101</v>
       </c>
       <c r="S37" t="n">
-        <v>708.0341608879066</v>
+        <v>651.8474100363354</v>
       </c>
       <c r="T37" t="n">
-        <v>636.0284485834106</v>
+        <v>579.8416977318394</v>
       </c>
       <c r="U37" t="n">
-        <v>509.1220395821704</v>
+        <v>452.9352887305991</v>
       </c>
       <c r="V37" t="n">
-        <v>408.6590646540869</v>
+        <v>352.4723138025156</v>
       </c>
       <c r="W37" t="n">
-        <v>282.77499268498</v>
+        <v>226.5882418334086</v>
       </c>
       <c r="X37" t="n">
-        <v>211.7948580938497</v>
+        <v>155.6081072422783</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.0320287996207</v>
+        <v>93.84527794804924</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1398.483915645799</v>
       </c>
       <c r="C38" t="n">
-        <v>1176.822486492101</v>
+        <v>1176.8224864921</v>
       </c>
       <c r="D38" t="n">
-        <v>964.2708512328184</v>
+        <v>964.2708512328177</v>
       </c>
       <c r="E38" t="n">
-        <v>729.7574608524192</v>
+        <v>729.7574608524184</v>
       </c>
       <c r="F38" t="n">
-        <v>475.8785996760835</v>
+        <v>475.8785996760826</v>
       </c>
       <c r="G38" t="n">
         <v>220.5170001085031</v>
@@ -7199,25 +7199,25 @@
         <v>2639.10156150284</v>
       </c>
       <c r="S38" t="n">
-        <v>2622.856350124412</v>
+        <v>2622.856350124411</v>
       </c>
       <c r="T38" t="n">
         <v>2560.827409920808</v>
       </c>
       <c r="U38" t="n">
-        <v>2466.252007745476</v>
+        <v>2466.252007745474</v>
       </c>
       <c r="V38" t="n">
-        <v>2289.545063154911</v>
+        <v>2289.54506315491</v>
       </c>
       <c r="W38" t="n">
-        <v>2087.282462526006</v>
+        <v>2087.282462526005</v>
       </c>
       <c r="X38" t="n">
-        <v>1865.524651560993</v>
+        <v>1865.524651560992</v>
       </c>
       <c r="Y38" t="n">
-        <v>1632.255125650325</v>
+        <v>1632.255125650324</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>824.962674837438</v>
       </c>
       <c r="M39" t="n">
-        <v>974.1440422108674</v>
+        <v>1372.453001722234</v>
       </c>
       <c r="N39" t="n">
-        <v>1549.519711947259</v>
+        <v>1947.828671458626</v>
       </c>
       <c r="O39" t="n">
         <v>2000.367809427797</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.5622387771632</v>
+        <v>70.56223877716313</v>
       </c>
       <c r="C40" t="n">
-        <v>61.21859875233744</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="D40" t="n">
-        <v>61.21859875233744</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="E40" t="n">
-        <v>61.21859875233744</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="F40" t="n">
-        <v>61.21859875233744</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="G40" t="n">
         <v>52.78203123005681</v>
@@ -7363,19 +7363,19 @@
         <v>636.0284485834109</v>
       </c>
       <c r="U40" t="n">
-        <v>509.1220395821706</v>
+        <v>452.9352887305985</v>
       </c>
       <c r="V40" t="n">
-        <v>408.6590646540872</v>
+        <v>352.472313802515</v>
       </c>
       <c r="W40" t="n">
-        <v>226.5882418334083</v>
+        <v>226.5882418334081</v>
       </c>
       <c r="X40" t="n">
-        <v>155.608107242278</v>
+        <v>155.6081072422779</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.84527794804907</v>
+        <v>93.84527794804897</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>964.2708512328186</v>
       </c>
       <c r="E41" t="n">
-        <v>729.7574608524193</v>
+        <v>729.7574608524194</v>
       </c>
       <c r="F41" t="n">
-        <v>475.8785996760837</v>
+        <v>475.8785996760838</v>
       </c>
       <c r="G41" t="n">
-        <v>220.517000108503</v>
+        <v>220.5170001085031</v>
       </c>
       <c r="H41" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="I41" t="n">
-        <v>52.78203123005662</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="J41" t="n">
-        <v>163.8821940097075</v>
+        <v>163.882194009708</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6257561473059</v>
+        <v>462.6257561473062</v>
       </c>
       <c r="L41" t="n">
-        <v>883.2135685909345</v>
+        <v>883.213568590935</v>
       </c>
       <c r="M41" t="n">
         <v>1357.348206890917</v>
       </c>
       <c r="N41" t="n">
-        <v>1817.884010936857</v>
+        <v>1817.884010936858</v>
       </c>
       <c r="O41" t="n">
         <v>2200.511922117834</v>
@@ -7430,13 +7430,13 @@
         <v>2494.918532040153</v>
       </c>
       <c r="Q41" t="n">
-        <v>2639.10156150284</v>
+        <v>2639.101561502841</v>
       </c>
       <c r="R41" t="n">
-        <v>2639.10156150284</v>
+        <v>2639.101561502841</v>
       </c>
       <c r="S41" t="n">
-        <v>2622.856350124411</v>
+        <v>2622.856350124412</v>
       </c>
       <c r="T41" t="n">
         <v>2560.827409920808</v>
@@ -7445,13 +7445,13 @@
         <v>2466.252007745475</v>
       </c>
       <c r="V41" t="n">
-        <v>2289.54506315491</v>
+        <v>2289.545063154911</v>
       </c>
       <c r="W41" t="n">
         <v>2087.282462526005</v>
       </c>
       <c r="X41" t="n">
-        <v>1865.524651560992</v>
+        <v>1865.524651560993</v>
       </c>
       <c r="Y41" t="n">
         <v>1632.255125650325</v>
@@ -7485,19 +7485,19 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I42" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="J42" t="n">
-        <v>136.3248338729362</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="K42" t="n">
-        <v>405.6194090872971</v>
+        <v>322.0766064444177</v>
       </c>
       <c r="L42" t="n">
-        <v>426.6537153260715</v>
+        <v>741.4198721945586</v>
       </c>
       <c r="M42" t="n">
-        <v>974.1440422108674</v>
+        <v>1288.910199079354</v>
       </c>
       <c r="N42" t="n">
         <v>1549.519711947259</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.56223877716302</v>
+        <v>70.56223877716315</v>
       </c>
       <c r="C43" t="n">
-        <v>61.21859875233735</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="D43" t="n">
-        <v>61.21859875233735</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="E43" t="n">
-        <v>61.21859875233735</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="F43" t="n">
-        <v>61.21859875233735</v>
+        <v>61.21859875233741</v>
       </c>
       <c r="G43" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="H43" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="I43" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="J43" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005682</v>
       </c>
       <c r="K43" t="n">
         <v>110.3958480836489</v>
@@ -7594,25 +7594,25 @@
         <v>757.7970256957101</v>
       </c>
       <c r="S43" t="n">
-        <v>708.0341608879068</v>
+        <v>651.8474100363345</v>
       </c>
       <c r="T43" t="n">
-        <v>636.0284485834109</v>
+        <v>579.8416977318386</v>
       </c>
       <c r="U43" t="n">
-        <v>509.1220395821707</v>
+        <v>452.9352887305985</v>
       </c>
       <c r="V43" t="n">
-        <v>352.4723138025147</v>
+        <v>352.4723138025151</v>
       </c>
       <c r="W43" t="n">
-        <v>226.5882418334079</v>
+        <v>226.5882418334082</v>
       </c>
       <c r="X43" t="n">
-        <v>155.6081072422777</v>
+        <v>155.6081072422779</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.8452779480488</v>
+        <v>93.84527794804899</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7625,46 @@
         <v>1398.483915645798</v>
       </c>
       <c r="C44" t="n">
-        <v>1176.8224864921</v>
+        <v>1176.822486492099</v>
       </c>
       <c r="D44" t="n">
         <v>964.2708512328172</v>
       </c>
       <c r="E44" t="n">
-        <v>729.7574608524183</v>
+        <v>729.757460852418</v>
       </c>
       <c r="F44" t="n">
-        <v>475.8785996760828</v>
+        <v>475.8785996760826</v>
       </c>
       <c r="G44" t="n">
         <v>220.5170001085031</v>
       </c>
       <c r="H44" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="I44" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005525</v>
       </c>
       <c r="J44" t="n">
-        <v>163.8821940097077</v>
+        <v>163.8821940097061</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6257561473061</v>
+        <v>462.6257561473045</v>
       </c>
       <c r="L44" t="n">
-        <v>883.2135685909348</v>
+        <v>883.2135685909332</v>
       </c>
       <c r="M44" t="n">
-        <v>1357.348206890917</v>
+        <v>1357.348206890915</v>
       </c>
       <c r="N44" t="n">
-        <v>1817.884010936858</v>
+        <v>1817.884010936856</v>
       </c>
       <c r="O44" t="n">
-        <v>2200.511922117834</v>
+        <v>2200.511922117832</v>
       </c>
       <c r="P44" t="n">
-        <v>2494.918532040153</v>
+        <v>2494.918532040152</v>
       </c>
       <c r="Q44" t="n">
         <v>2639.10156150284</v>
@@ -7713,7 +7713,7 @@
         <v>473.1847791337673</v>
       </c>
       <c r="F45" t="n">
-        <v>338.4909810836417</v>
+        <v>338.4909810836416</v>
       </c>
       <c r="G45" t="n">
         <v>210.0139840230831</v>
@@ -7722,19 +7722,19 @@
         <v>112.5051152600331</v>
       </c>
       <c r="I45" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="J45" t="n">
-        <v>136.3248338729362</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="K45" t="n">
-        <v>405.6194090872971</v>
+        <v>322.0766064444177</v>
       </c>
       <c r="L45" t="n">
-        <v>824.962674837438</v>
+        <v>741.4198721945586</v>
       </c>
       <c r="M45" t="n">
-        <v>974.1440422108674</v>
+        <v>1288.910199079354</v>
       </c>
       <c r="N45" t="n">
         <v>1549.519711947259</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.56223877716307</v>
+        <v>70.56223877716312</v>
       </c>
       <c r="C46" t="n">
-        <v>61.21859875233738</v>
+        <v>61.21859875233739</v>
       </c>
       <c r="D46" t="n">
-        <v>61.21859875233738</v>
+        <v>61.21859875233739</v>
       </c>
       <c r="E46" t="n">
-        <v>61.21859875233738</v>
+        <v>61.21859875233739</v>
       </c>
       <c r="F46" t="n">
-        <v>61.21859875233738</v>
+        <v>61.21859875233739</v>
       </c>
       <c r="G46" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="H46" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="I46" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="J46" t="n">
-        <v>52.78203123005681</v>
+        <v>52.78203123005679</v>
       </c>
       <c r="K46" t="n">
         <v>110.3958480836489</v>
@@ -7831,25 +7831,25 @@
         <v>757.7970256957101</v>
       </c>
       <c r="S46" t="n">
-        <v>651.8474100363344</v>
+        <v>651.8474100363345</v>
       </c>
       <c r="T46" t="n">
-        <v>579.8416977318385</v>
+        <v>579.8416977318386</v>
       </c>
       <c r="U46" t="n">
-        <v>452.9352887305983</v>
+        <v>452.9352887305985</v>
       </c>
       <c r="V46" t="n">
-        <v>352.4723138025149</v>
+        <v>352.472313802515</v>
       </c>
       <c r="W46" t="n">
-        <v>226.588241833408</v>
+        <v>226.5882418334081</v>
       </c>
       <c r="X46" t="n">
-        <v>155.6081072422778</v>
+        <v>155.6081072422779</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.84527794804889</v>
+        <v>93.84527794804896</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>156.705044744887</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
@@ -7985,19 +7985,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N2" t="n">
-        <v>196.0033614891845</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O2" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
         <v>197.8864878340879</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>112.660818983621</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>122.005847949598</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>122.5851123540791</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>116.7248198506397</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>125.8691273940425</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8140,19 +8140,19 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M4" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O4" t="n">
-        <v>122.1011848090766</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>156.705044744887</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K5" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M5" t="n">
-        <v>197.1659932800904</v>
+        <v>196.7615618141134</v>
       </c>
       <c r="N5" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
@@ -8304,16 +8304,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>116.3203883846627</v>
       </c>
       <c r="O6" t="n">
-        <v>125.4646959280654</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
         <v>118.8638848070747</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8380,16 +8380,16 @@
         <v>119.6034782614375</v>
       </c>
       <c r="M7" t="n">
-        <v>122.4824467743834</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N7" t="n">
-        <v>103.744504878002</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O7" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P7" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>259.0720343237192</v>
+        <v>262.4509408647588</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>275.1881490538266</v>
       </c>
       <c r="M8" t="n">
-        <v>270.7842513878704</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>193.92134222614</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>271.5047459418678</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>264.2513099137016</v>
+        <v>264.2513099137022</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,25 +8532,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>195.624106057378</v>
+        <v>195.6241060573787</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>131.9616896449562</v>
       </c>
       <c r="M9" t="n">
-        <v>199.1118394523512</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>126.101397141516</v>
+        <v>190.3430779584203</v>
       </c>
       <c r="O9" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>192.4821429148546</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>197.3631283356045</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>121.4677735949115</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L10" t="n">
-        <v>193.2217363692174</v>
+        <v>193.2217363692181</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>196.5051363481411</v>
       </c>
       <c r="N10" t="n">
-        <v>187.3724417687133</v>
+        <v>170.0733191155778</v>
       </c>
       <c r="O10" t="n">
-        <v>196.1238743828336</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
         <v>175.5085323082534</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>203.0843005402858</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8128043119041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9003,13 +9003,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>79.53167660628969</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>79.76016655978336</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>287.2043542096823</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.95210608036845</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9176,7 +9176,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415682</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>71.79008567760386</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>411.9611722881411</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.7829141606379</v>
+        <v>81.9521060803684</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>203.0843005402862</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>220.8128043119059</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9726,13 +9726,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>305.1994736481478</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>96.05598623344653</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9960,13 +9960,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>287.470969876528</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>194.0754020612767</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>79.53167660628964</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,10 +10200,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>305.199473648148</v>
       </c>
       <c r="O30" t="n">
-        <v>109.6887327250348</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>203.0843005402862</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>220.8128043119059</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10668,13 +10668,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>79.76016655978323</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>411.9611722881411</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>81.9521060803684</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10908,13 +10908,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>203.0843005402862</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>109.6887327250346</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>79.53167660628964</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>79.76016655978323</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>305.1994736481478</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>79.53167660628964</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>203.0843005402862</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>305.1994736481478</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>274.1256870116306</v>
       </c>
       <c r="D11" t="n">
-        <v>265.1069910561586</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.6452975380229</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>220.7384913391307</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>43.22864612541713</v>
+        <v>254.9208467720849</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>285.6177028010302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.1143700539488</v>
+        <v>106.5425032128284</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>148.3105203030485</v>
       </c>
       <c r="V14" t="n">
-        <v>229.620747294128</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>254.9208467720849</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.03586720157619</v>
+        <v>274.2211050048315</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>285.6177028010302</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.107913760733936e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>67.37328647556492</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.7984698046347</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>220.7384913391308</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>49.15962122917419</v>
+        <v>49.15962122917416</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.76363141411412</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>116.0895229510361</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>148.3105203030485</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>181.7984698046338</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>220.7384913391308</v>
+        <v>73.76531477576131</v>
       </c>
       <c r="I29" t="n">
-        <v>49.15962122917418</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,10 +24734,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>148.3105203030485</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>229.620747294128</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-3.968104498813748e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>830828.7831777156</v>
+        <v>830828.7831777157</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>826561.9108248155</v>
+        <v>826561.9108248154</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855456.3326411397</v>
+        <v>855456.33264114</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855456.3326411397</v>
+        <v>855456.33264114</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>891411.3805980257</v>
+        <v>891411.3805980255</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>575602.6292771602</v>
       </c>
       <c r="D2" t="n">
-        <v>575718.045370636</v>
+        <v>575718.0453706362</v>
       </c>
       <c r="E2" t="n">
-        <v>527080.943040729</v>
+        <v>527080.9430407293</v>
       </c>
       <c r="F2" t="n">
-        <v>527080.9430407288</v>
+        <v>527080.9430407292</v>
       </c>
       <c r="G2" t="n">
-        <v>575718.045370637</v>
+        <v>575718.0453706372</v>
       </c>
       <c r="H2" t="n">
-        <v>575718.045370637</v>
+        <v>575718.0453706372</v>
       </c>
       <c r="I2" t="n">
         <v>575718.0453706371</v>
@@ -26338,22 +26338,22 @@
         <v>548751.7594029726</v>
       </c>
       <c r="K2" t="n">
-        <v>548751.7594029723</v>
+        <v>548751.759402973</v>
       </c>
       <c r="L2" t="n">
         <v>575718.0453706363</v>
       </c>
       <c r="M2" t="n">
-        <v>575718.0453706376</v>
+        <v>575718.0453706367</v>
       </c>
       <c r="N2" t="n">
-        <v>575718.0453706372</v>
+        <v>575718.0453706373</v>
       </c>
       <c r="O2" t="n">
+        <v>575718.0453706373</v>
+      </c>
+      <c r="P2" t="n">
         <v>575718.0453706371</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575718.0453706372</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22868.03951601969</v>
+        <v>22868.03951601991</v>
       </c>
       <c r="E3" t="n">
-        <v>348215.8856122102</v>
+        <v>348215.8856122096</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43744.69771957531</v>
+        <v>43744.69771957512</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.291381405217614e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66538.44501593879</v>
+        <v>66538.44501593888</v>
       </c>
       <c r="K3" t="n">
-        <v>1.483606662566599e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>83072.39470291443</v>
+        <v>83072.39470291445</v>
       </c>
       <c r="M3" t="n">
-        <v>143031.6222556474</v>
+        <v>143031.6222556472</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>39446.28953553704</v>
+        <v>39446.28953553697</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>382730.8693733049</v>
       </c>
       <c r="D4" t="n">
-        <v>370778.4471588019</v>
+        <v>370778.4471588018</v>
       </c>
       <c r="E4" t="n">
         <v>232116.302799603</v>
       </c>
       <c r="F4" t="n">
-        <v>232116.3027996031</v>
+        <v>232116.302799603</v>
       </c>
       <c r="G4" t="n">
         <v>268893.6924133891</v>
@@ -26439,10 +26439,10 @@
         <v>268893.6924133891</v>
       </c>
       <c r="J4" t="n">
-        <v>248987.3631741173</v>
+        <v>248987.3631741174</v>
       </c>
       <c r="K4" t="n">
-        <v>248987.3631741173</v>
+        <v>248987.3631741174</v>
       </c>
       <c r="L4" t="n">
         <v>268975.1579578567</v>
@@ -26457,7 +26457,7 @@
         <v>268893.6924133892</v>
       </c>
       <c r="P4" t="n">
-        <v>268893.6924133892</v>
+        <v>268893.6924133891</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>34236.18847000223</v>
       </c>
       <c r="D5" t="n">
-        <v>38712.17856295525</v>
+        <v>38712.17856295529</v>
       </c>
       <c r="E5" t="n">
-        <v>51380.08669502092</v>
+        <v>51380.08669502089</v>
       </c>
       <c r="F5" t="n">
-        <v>51380.08669502089</v>
+        <v>51380.08669502088</v>
       </c>
       <c r="G5" t="n">
-        <v>55977.05293575459</v>
+        <v>55977.05293575458</v>
       </c>
       <c r="H5" t="n">
-        <v>55977.05293575459</v>
+        <v>55977.05293575457</v>
       </c>
       <c r="I5" t="n">
         <v>55977.05293575459</v>
       </c>
       <c r="J5" t="n">
-        <v>57067.08709083798</v>
+        <v>57067.08709083801</v>
       </c>
       <c r="K5" t="n">
-        <v>57067.08709083798</v>
+        <v>57067.08709083801</v>
       </c>
       <c r="L5" t="n">
-        <v>56723.8971950004</v>
+        <v>56723.89719500038</v>
       </c>
       <c r="M5" t="n">
-        <v>55977.05293575459</v>
+        <v>55977.05293575457</v>
       </c>
       <c r="N5" t="n">
         <v>55977.05293575458</v>
@@ -26509,7 +26509,7 @@
         <v>55977.05293575459</v>
       </c>
       <c r="P5" t="n">
-        <v>55977.05293575459</v>
+        <v>55977.05293575457</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155281.0978510807</v>
+        <v>155280.7131307691</v>
       </c>
       <c r="C6" t="n">
-        <v>158635.571433853</v>
+        <v>158635.1867135415</v>
       </c>
       <c r="D6" t="n">
-        <v>143359.3801328593</v>
+        <v>143359.3801328592</v>
       </c>
       <c r="E6" t="n">
-        <v>-104631.3320661051</v>
+        <v>-104793.4557405373</v>
       </c>
       <c r="F6" t="n">
-        <v>243584.5535461053</v>
+        <v>243422.4298716722</v>
       </c>
       <c r="G6" t="n">
-        <v>207102.6023019179</v>
+        <v>207102.6023019184</v>
       </c>
       <c r="H6" t="n">
-        <v>250847.3000214933</v>
+        <v>250847.3000214935</v>
       </c>
       <c r="I6" t="n">
         <v>250847.3000214934</v>
       </c>
       <c r="J6" t="n">
-        <v>176158.8641220786</v>
+        <v>176068.9765021861</v>
       </c>
       <c r="K6" t="n">
-        <v>242697.309138017</v>
+        <v>242607.4215181254</v>
       </c>
       <c r="L6" t="n">
-        <v>166946.5955148647</v>
+        <v>166946.5955148648</v>
       </c>
       <c r="M6" t="n">
-        <v>107815.6777658464</v>
+        <v>107815.6777658459</v>
       </c>
       <c r="N6" t="n">
         <v>250847.3000214935</v>
       </c>
       <c r="O6" t="n">
-        <v>211401.0104859563</v>
+        <v>211401.0104859566</v>
       </c>
       <c r="P6" t="n">
-        <v>250847.3000214935</v>
+        <v>250847.3000214934</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>158.669606218359</v>
       </c>
       <c r="O2" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="P2" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115.7575264101005</v>
+        <v>115.7575264101002</v>
       </c>
       <c r="F3" t="n">
-        <v>115.7575264100999</v>
+        <v>115.7575264101001</v>
       </c>
       <c r="G3" t="n">
-        <v>115.7575264101002</v>
+        <v>115.7575264101001</v>
       </c>
       <c r="H3" t="n">
         <v>115.7575264101001</v>
@@ -26762,7 +26762,7 @@
         <v>115.7575264101002</v>
       </c>
       <c r="K3" t="n">
-        <v>115.7575264101002</v>
+        <v>115.7575264101001</v>
       </c>
       <c r="L3" t="n">
         <v>115.7575264101001</v>
@@ -26793,43 +26793,43 @@
         <v>10.00967878293136</v>
       </c>
       <c r="D4" t="n">
-        <v>83.62793689071134</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="E4" t="n">
-        <v>659.7753903757107</v>
+        <v>659.7753903757103</v>
       </c>
       <c r="F4" t="n">
+        <v>659.7753903757101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>659.7753903757101</v>
+      </c>
+      <c r="H4" t="n">
+        <v>659.7753903757101</v>
+      </c>
+      <c r="I4" t="n">
         <v>659.7753903757103</v>
       </c>
-      <c r="G4" t="n">
-        <v>659.7753903757103</v>
-      </c>
-      <c r="H4" t="n">
-        <v>659.7753903757103</v>
-      </c>
-      <c r="I4" t="n">
-        <v>659.7753903757102</v>
-      </c>
       <c r="J4" t="n">
-        <v>753.3115810963861</v>
+        <v>753.3115810963866</v>
       </c>
       <c r="K4" t="n">
-        <v>753.3115810963861</v>
+        <v>753.3115810963866</v>
       </c>
       <c r="L4" t="n">
-        <v>679.6933229886062</v>
+        <v>679.6933229886059</v>
       </c>
       <c r="M4" t="n">
-        <v>659.7753903757102</v>
+        <v>659.7753903757101</v>
       </c>
       <c r="N4" t="n">
         <v>659.7753903757101</v>
       </c>
       <c r="O4" t="n">
-        <v>659.7753903757101</v>
+        <v>659.7753903757102</v>
       </c>
       <c r="P4" t="n">
-        <v>659.7753903757101</v>
+        <v>659.7753903757099</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>54.68087214946885</v>
+        <v>54.6808721494689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>49.30786191942121</v>
       </c>
       <c r="K2" t="n">
-        <v>1.854508328208248e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>103.840493378643</v>
+        <v>103.8404933786431</v>
       </c>
       <c r="M2" t="n">
-        <v>5.521250920294733</v>
+        <v>5.521250920294705</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>49.3078619194213</v>
+        <v>49.30786191942121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115.7575264101005</v>
+        <v>115.7575264101002</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.150861559142598e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>73.61825810777998</v>
+        <v>73.61825810778066</v>
       </c>
       <c r="E4" t="n">
-        <v>576.1474534849993</v>
+        <v>576.1474534849983</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.590525670091663e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>103.5458695036073</v>
+        <v>103.5458695036076</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2295208721034</v>
+        <v>556.2295208721025</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.68087214946885</v>
+        <v>54.6808721494689</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>49.30786191942121</v>
       </c>
       <c r="P2" t="n">
-        <v>1.854508328208248e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>73.61825810777998</v>
+        <v>73.61825810778066</v>
       </c>
       <c r="M4" t="n">
-        <v>576.1474534849993</v>
+        <v>576.1474534849983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.590525670091663e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27382,10 +27382,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>360.2792000530427</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>380.8281839120228</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>161.0793480203606</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>80.91537856709924</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27464,19 +27464,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>136.7412047716915</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G3" t="n">
-        <v>118.6246899049423</v>
+        <v>117.4315361940169</v>
       </c>
       <c r="H3" t="n">
         <v>88.92880009583757</v>
       </c>
       <c r="I3" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -27552,13 +27552,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>148.962393696513</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>28.14228914991649</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>201.5629861874179</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27600,10 +27600,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>220.1234143915721</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.8051284367143</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>360.2792000530427</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0213376229482</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27673,7 +27673,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>323.5998025800867</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27695,7 +27695,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>151.2701109594489</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -27749,16 +27749,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>206.3001656947416</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>217.2951412541434</v>
       </c>
       <c r="W6" t="n">
         <v>228.8930312960917</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27774,13 +27774,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>159.1032847709306</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>141.5314954575835</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>140.479245313363</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27789,7 +27789,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>275.5018120437852</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>248.1182726142302</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>348.2931386499461</v>
       </c>
       <c r="H8" t="n">
-        <v>277.7862003086105</v>
+        <v>245.8651247679518</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>87.46108991257992</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.103966748393844</v>
+        <v>6.103966748393162</v>
       </c>
       <c r="S8" t="n">
-        <v>101.7287487252382</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,7 +27910,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>249.9815444723067</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27935,19 +27935,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>53.8223137489787</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>139.5967054871979</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>49.71892317891238</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>43.81327808623624</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>15.31054198805691</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27986,13 +27986,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>132.6819075869616</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>208.5001750478165</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28017,22 +28017,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>66.860987205583</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>67.32791153376931</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>74.15098187780688</v>
       </c>
       <c r="I10" t="n">
-        <v>59.13307706263691</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>64.39862668105354</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>243.9251307837915</v>
       </c>
       <c r="W10" t="n">
-        <v>209.6353506544364</v>
+        <v>199.6669005770628</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.49992889193543</v>
+        <v>60.49992889193552</v>
       </c>
       <c r="S11" t="n">
         <v>103.9887340688901</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.49992889193558</v>
+        <v>60.49992889193554</v>
       </c>
       <c r="S14" t="n">
         <v>103.9887340688901</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4999288919355</v>
+        <v>60.49992889193553</v>
       </c>
       <c r="S17" t="n">
         <v>158.669606218359</v>
@@ -28743,7 +28743,7 @@
         <v>136.4835402260595</v>
       </c>
       <c r="J19" t="n">
-        <v>44.69853041486492</v>
+        <v>44.69853041486493</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.67258144492272</v>
+        <v>20.67258144492273</v>
       </c>
       <c r="R19" t="n">
-        <v>138.6407156107106</v>
+        <v>83.01583226765473</v>
       </c>
       <c r="S19" t="n">
         <v>158.669606218359</v>
@@ -28788,7 +28788,7 @@
         <v>158.669606218359</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0447228753031</v>
+        <v>158.669606218359</v>
       </c>
     </row>
     <row r="20">
@@ -28977,7 +28977,7 @@
         <v>155.9230030172226</v>
       </c>
       <c r="I22" t="n">
-        <v>136.4835402260595</v>
+        <v>80.85865688300396</v>
       </c>
       <c r="J22" t="n">
         <v>44.69853041486493</v>
@@ -29013,7 +29013,7 @@
         <v>158.669606218359</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0447228753034</v>
+        <v>158.669606218359</v>
       </c>
       <c r="V22" t="n">
         <v>158.669606218359</v>
@@ -29205,13 +29205,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>95.33096508142506</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>158.669606218359</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9230030172226</v>
+        <v>100.298119674167</v>
       </c>
       <c r="I25" t="n">
         <v>136.4835402260595</v>
@@ -29299,22 +29299,22 @@
         <v>103.9887340688901</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>103.9887340688901</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>103.9887340688901</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>58.39932064691646</v>
       </c>
       <c r="N26" t="n">
-        <v>103.9887340688901</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>58.39932064691521</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>103.9887340688901</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29533,31 +29533,31 @@
         <v>103.9887340688901</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>103.9887340688901</v>
       </c>
-      <c r="K29" t="n">
-        <v>58.3993206469155</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>14.91051546996306</v>
+      </c>
+      <c r="P29" t="n">
         <v>103.9887340688901</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>103.9887340688901</v>
       </c>
       <c r="R29" t="n">
-        <v>60.49992889193551</v>
+        <v>103.9887340688901</v>
       </c>
       <c r="S29" t="n">
         <v>103.9887340688901</v>
@@ -29706,7 +29706,7 @@
         <v>103.9887340688901</v>
       </c>
       <c r="O31" t="n">
-        <v>103.9887340688901</v>
+        <v>103.9887340688892</v>
       </c>
       <c r="P31" t="n">
         <v>103.9887340688901</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>78.86696549752708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>60.49992889193553</v>
+        <v>139.3668943894619</v>
       </c>
       <c r="S32" t="n">
         <v>153.1483552980642</v>
@@ -29946,13 +29946,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.410237301346527</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>20.67258144492273</v>
       </c>
       <c r="R34" t="n">
-        <v>138.6407156107106</v>
+        <v>141.0509529120572</v>
       </c>
       <c r="S34" t="n">
         <v>153.1483552980642</v>
@@ -30004,7 +30004,7 @@
         <v>158.669606218359</v>
       </c>
       <c r="I35" t="n">
-        <v>153.1483552980643</v>
+        <v>153.1483552980642</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>94.86404075323856</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.67258144492274</v>
+        <v>20.67258144492273</v>
       </c>
       <c r="R37" t="n">
         <v>138.6407156107106</v>
       </c>
       <c r="S37" t="n">
-        <v>158.669606218359</v>
+        <v>103.0447228753034</v>
       </c>
       <c r="T37" t="n">
         <v>158.669606218359</v>
@@ -30241,7 +30241,7 @@
         <v>158.669606218359</v>
       </c>
       <c r="I38" t="n">
-        <v>153.1483552980643</v>
+        <v>153.1483552980642</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.67258144492274</v>
+        <v>20.67258144492273</v>
       </c>
       <c r="R40" t="n">
         <v>138.6407156107106</v>
@@ -30435,13 +30435,13 @@
         <v>158.669606218359</v>
       </c>
       <c r="U40" t="n">
-        <v>158.669606218359</v>
+        <v>103.0447228753026</v>
       </c>
       <c r="V40" t="n">
         <v>158.669606218359</v>
       </c>
       <c r="W40" t="n">
-        <v>103.0447228753028</v>
+        <v>158.669606218359</v>
       </c>
       <c r="X40" t="n">
         <v>158.669606218359</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="C41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="D41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="E41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="F41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="G41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="H41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="I41" t="n">
-        <v>153.1483552980643</v>
+        <v>153.1483552980642</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>60.49992889193553</v>
       </c>
       <c r="S41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="T41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="U41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="V41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="W41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="X41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="Y41" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="C43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="H43" t="n">
         <v>155.9230030172226</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.67258144492274</v>
+        <v>20.67258144492273</v>
       </c>
       <c r="R43" t="n">
         <v>138.6407156107106</v>
       </c>
       <c r="S43" t="n">
-        <v>158.6696062183591</v>
+        <v>103.0447228753026</v>
       </c>
       <c r="T43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="U43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="V43" t="n">
-        <v>103.0447228753022</v>
+        <v>158.669606218359</v>
       </c>
       <c r="W43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="X43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="C44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="D44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="E44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="F44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="G44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="H44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="I44" t="n">
-        <v>153.1483552980643</v>
+        <v>153.1483552980627</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>60.49992889193553</v>
       </c>
       <c r="S44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="T44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="U44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="V44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="W44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="X44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="C46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="H46" t="n">
         <v>155.9230030172226</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.67258144492274</v>
+        <v>20.67258144492273</v>
       </c>
       <c r="R46" t="n">
         <v>138.6407156107106</v>
       </c>
       <c r="S46" t="n">
-        <v>103.0447228753024</v>
+        <v>103.0447228753026</v>
       </c>
       <c r="T46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="U46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="V46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="W46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="X46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
       <c r="Y46" t="n">
-        <v>158.6696062183591</v>
+        <v>158.669606218359</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.465356890090856</v>
+        <v>0.4653568900908545</v>
       </c>
       <c r="H11" t="n">
-        <v>4.76583625064298</v>
+        <v>4.765836250642965</v>
       </c>
       <c r="I11" t="n">
-        <v>17.94067150522774</v>
+        <v>17.94067150522769</v>
       </c>
       <c r="J11" t="n">
-        <v>39.49658435034883</v>
+        <v>39.49658435034871</v>
       </c>
       <c r="K11" t="n">
-        <v>59.19514150789477</v>
+        <v>59.19514150789458</v>
       </c>
       <c r="L11" t="n">
-        <v>73.43680743301282</v>
+        <v>73.43680743301259</v>
       </c>
       <c r="M11" t="n">
-        <v>81.71259802716607</v>
+        <v>81.71259802716582</v>
       </c>
       <c r="N11" t="n">
-        <v>83.03479329113672</v>
+        <v>83.03479329113647</v>
       </c>
       <c r="O11" t="n">
-        <v>78.40740071529576</v>
+        <v>78.40740071529552</v>
       </c>
       <c r="P11" t="n">
-        <v>66.91890249117775</v>
+        <v>66.91890249117755</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.25330886479896</v>
+        <v>50.2533088647988</v>
       </c>
       <c r="R11" t="n">
-        <v>29.23197474716976</v>
+        <v>29.23197474716967</v>
       </c>
       <c r="S11" t="n">
-        <v>10.60432013294539</v>
+        <v>10.60432013294536</v>
       </c>
       <c r="T11" t="n">
-        <v>2.037099786372723</v>
+        <v>2.037099786372717</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03722855120726847</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2489878869953105</v>
+        <v>0.2489878869953098</v>
       </c>
       <c r="H12" t="n">
-        <v>2.404698803349447</v>
+        <v>2.40469880334944</v>
       </c>
       <c r="I12" t="n">
-        <v>8.572609267163106</v>
+        <v>8.572609267163079</v>
       </c>
       <c r="J12" t="n">
-        <v>23.52389506037713</v>
+        <v>23.52389506037705</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20608348906293</v>
+        <v>40.20608348906281</v>
       </c>
       <c r="L12" t="n">
-        <v>54.06204098992477</v>
+        <v>54.06204098992461</v>
       </c>
       <c r="M12" t="n">
-        <v>63.08785189350477</v>
+        <v>63.08785189350458</v>
       </c>
       <c r="N12" t="n">
-        <v>64.75759960936368</v>
+        <v>64.75759960936348</v>
       </c>
       <c r="O12" t="n">
-        <v>59.24055221857285</v>
+        <v>59.24055221857267</v>
       </c>
       <c r="P12" t="n">
-        <v>47.54576589474487</v>
+        <v>47.54576589474473</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.7830853645242</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R12" t="n">
-        <v>15.45909003642815</v>
+        <v>15.4590900364281</v>
       </c>
       <c r="S12" t="n">
-        <v>4.624840795724296</v>
+        <v>4.624840795724282</v>
       </c>
       <c r="T12" t="n">
-        <v>1.003595912932852</v>
+        <v>1.003595912932849</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01638078203916517</v>
+        <v>0.01638078203916512</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2087430804116566</v>
+        <v>0.208743080411656</v>
       </c>
       <c r="H13" t="n">
-        <v>1.855915751296367</v>
+        <v>1.855915751296361</v>
       </c>
       <c r="I13" t="n">
-        <v>6.27747372728873</v>
+        <v>6.277473727288712</v>
       </c>
       <c r="J13" t="n">
-        <v>14.75813578510412</v>
+        <v>14.75813578510408</v>
       </c>
       <c r="K13" t="n">
-        <v>24.25215061509974</v>
+        <v>24.25215061509966</v>
       </c>
       <c r="L13" t="n">
-        <v>31.03440306411121</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M13" t="n">
-        <v>32.72142668671086</v>
+        <v>32.72142668671076</v>
       </c>
       <c r="N13" t="n">
-        <v>31.94338429608562</v>
+        <v>31.94338429608553</v>
       </c>
       <c r="O13" t="n">
-        <v>29.50488558400399</v>
+        <v>29.5048855840039</v>
       </c>
       <c r="P13" t="n">
-        <v>25.24652674360617</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.47938648792518</v>
+        <v>17.47938648792512</v>
       </c>
       <c r="R13" t="n">
-        <v>9.385847961055031</v>
+        <v>9.385847961055003</v>
       </c>
       <c r="S13" t="n">
-        <v>3.63782259226496</v>
+        <v>3.637822592264949</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8919022526679872</v>
+        <v>0.8919022526679845</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01138598620427219</v>
+        <v>0.01138598620427216</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4653568900908535</v>
+        <v>0.4653568900908542</v>
       </c>
       <c r="H14" t="n">
-        <v>4.765836250642955</v>
+        <v>4.765836250642963</v>
       </c>
       <c r="I14" t="n">
-        <v>17.94067150522765</v>
+        <v>17.94067150522768</v>
       </c>
       <c r="J14" t="n">
-        <v>39.49658435034861</v>
+        <v>39.49658435034868</v>
       </c>
       <c r="K14" t="n">
-        <v>59.19514150789445</v>
+        <v>59.19514150789455</v>
       </c>
       <c r="L14" t="n">
-        <v>73.43680743301243</v>
+        <v>73.43680743301255</v>
       </c>
       <c r="M14" t="n">
-        <v>81.71259802716564</v>
+        <v>81.71259802716577</v>
       </c>
       <c r="N14" t="n">
-        <v>83.03479329113628</v>
+        <v>83.03479329113642</v>
       </c>
       <c r="O14" t="n">
-        <v>78.40740071529535</v>
+        <v>78.40740071529548</v>
       </c>
       <c r="P14" t="n">
-        <v>66.91890249117741</v>
+        <v>66.9189024911775</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.25330886479869</v>
+        <v>50.25330886479878</v>
       </c>
       <c r="R14" t="n">
-        <v>29.2319747471696</v>
+        <v>29.23197474716965</v>
       </c>
       <c r="S14" t="n">
-        <v>10.60432013294533</v>
+        <v>10.60432013294535</v>
       </c>
       <c r="T14" t="n">
-        <v>2.037099786372712</v>
+        <v>2.037099786372715</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03722855120726827</v>
+        <v>0.03722855120726833</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2489878869953092</v>
+        <v>0.2489878869953096</v>
       </c>
       <c r="H15" t="n">
-        <v>2.404698803349434</v>
+        <v>2.404698803349438</v>
       </c>
       <c r="I15" t="n">
-        <v>8.57260926716306</v>
+        <v>8.572609267163074</v>
       </c>
       <c r="J15" t="n">
-        <v>23.523895060377</v>
+        <v>23.52389506037704</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20608348906272</v>
+        <v>40.20608348906278</v>
       </c>
       <c r="L15" t="n">
-        <v>54.06204098992449</v>
+        <v>54.06204098992458</v>
       </c>
       <c r="M15" t="n">
-        <v>63.08785189350444</v>
+        <v>63.08785189350453</v>
       </c>
       <c r="N15" t="n">
-        <v>64.75759960936334</v>
+        <v>64.75759960936345</v>
       </c>
       <c r="O15" t="n">
-        <v>59.24055221857254</v>
+        <v>59.24055221857263</v>
       </c>
       <c r="P15" t="n">
-        <v>47.54576589474462</v>
+        <v>47.5457658947447</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.78308536452404</v>
+        <v>31.78308536452409</v>
       </c>
       <c r="R15" t="n">
-        <v>15.45909003642806</v>
+        <v>15.45909003642809</v>
       </c>
       <c r="S15" t="n">
-        <v>4.624840795724271</v>
+        <v>4.624840795724278</v>
       </c>
       <c r="T15" t="n">
-        <v>1.003595912932847</v>
+        <v>1.003595912932848</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01638078203916509</v>
+        <v>0.01638078203916511</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2087430804116555</v>
+        <v>0.2087430804116559</v>
       </c>
       <c r="H16" t="n">
-        <v>1.855915751296357</v>
+        <v>1.85591575129636</v>
       </c>
       <c r="I16" t="n">
-        <v>6.277473727288697</v>
+        <v>6.277473727288707</v>
       </c>
       <c r="J16" t="n">
-        <v>14.75813578510405</v>
+        <v>14.75813578510407</v>
       </c>
       <c r="K16" t="n">
-        <v>24.25215061509961</v>
+        <v>24.25215061509965</v>
       </c>
       <c r="L16" t="n">
-        <v>31.03440306411105</v>
+        <v>31.0344030641111</v>
       </c>
       <c r="M16" t="n">
-        <v>32.72142668671069</v>
+        <v>32.72142668671074</v>
       </c>
       <c r="N16" t="n">
-        <v>31.94338429608545</v>
+        <v>31.9433842960855</v>
       </c>
       <c r="O16" t="n">
-        <v>29.50488558400383</v>
+        <v>29.50488558400388</v>
       </c>
       <c r="P16" t="n">
-        <v>25.24652674360604</v>
+        <v>25.24652674360608</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.47938648792508</v>
+        <v>17.47938648792511</v>
       </c>
       <c r="R16" t="n">
-        <v>9.385847961054981</v>
+        <v>9.385847961054997</v>
       </c>
       <c r="S16" t="n">
-        <v>3.637822592264941</v>
+        <v>3.637822592264947</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8919022526679825</v>
+        <v>0.891902252667984</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01138598620427213</v>
+        <v>0.01138598620427215</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4653568900908547</v>
+        <v>0.4653568900908544</v>
       </c>
       <c r="H17" t="n">
-        <v>4.765836250642967</v>
+        <v>4.765836250642964</v>
       </c>
       <c r="I17" t="n">
-        <v>17.94067150522769</v>
+        <v>17.94067150522768</v>
       </c>
       <c r="J17" t="n">
-        <v>39.49658435034872</v>
+        <v>39.49658435034869</v>
       </c>
       <c r="K17" t="n">
-        <v>59.1951415078946</v>
+        <v>59.19514150789457</v>
       </c>
       <c r="L17" t="n">
-        <v>73.43680743301262</v>
+        <v>73.43680743301258</v>
       </c>
       <c r="M17" t="n">
-        <v>81.71259802716585</v>
+        <v>81.7125980271658</v>
       </c>
       <c r="N17" t="n">
-        <v>83.03479329113649</v>
+        <v>83.03479329113645</v>
       </c>
       <c r="O17" t="n">
-        <v>78.40740071529555</v>
+        <v>78.40740071529551</v>
       </c>
       <c r="P17" t="n">
-        <v>66.91890249117758</v>
+        <v>66.91890249117753</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.25330886479883</v>
+        <v>50.25330886479879</v>
       </c>
       <c r="R17" t="n">
-        <v>29.23197474716968</v>
+        <v>29.23197474716966</v>
       </c>
       <c r="S17" t="n">
         <v>10.60432013294536</v>
       </c>
       <c r="T17" t="n">
-        <v>2.037099786372718</v>
+        <v>2.037099786372716</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03722855120726837</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2489878869953099</v>
+        <v>0.2489878869953097</v>
       </c>
       <c r="H18" t="n">
-        <v>2.404698803349441</v>
+        <v>2.404698803349439</v>
       </c>
       <c r="I18" t="n">
-        <v>8.572609267163083</v>
+        <v>8.572609267163077</v>
       </c>
       <c r="J18" t="n">
-        <v>23.52389506037706</v>
+        <v>23.52389506037705</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20608348906283</v>
+        <v>40.2060834890628</v>
       </c>
       <c r="L18" t="n">
-        <v>54.06204098992463</v>
+        <v>54.0620409899246</v>
       </c>
       <c r="M18" t="n">
-        <v>63.0878518935046</v>
+        <v>63.08785189350456</v>
       </c>
       <c r="N18" t="n">
-        <v>64.75759960936351</v>
+        <v>64.75759960936347</v>
       </c>
       <c r="O18" t="n">
-        <v>59.2405522185727</v>
+        <v>59.24055221857265</v>
       </c>
       <c r="P18" t="n">
-        <v>47.54576589474475</v>
+        <v>47.54576589474472</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.78308536452412</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R18" t="n">
-        <v>15.4590900364281</v>
+        <v>15.45909003642809</v>
       </c>
       <c r="S18" t="n">
-        <v>4.624840795724284</v>
+        <v>4.62484079572428</v>
       </c>
       <c r="T18" t="n">
-        <v>1.00359591293285</v>
+        <v>1.003595912932849</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01638078203916513</v>
+        <v>0.01638078203916512</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2087430804116561</v>
+        <v>0.2087430804116559</v>
       </c>
       <c r="H19" t="n">
-        <v>1.855915751296362</v>
+        <v>1.855915751296361</v>
       </c>
       <c r="I19" t="n">
-        <v>6.277473727288713</v>
+        <v>6.27747372728871</v>
       </c>
       <c r="J19" t="n">
-        <v>14.75813578510408</v>
+        <v>14.75813578510407</v>
       </c>
       <c r="K19" t="n">
-        <v>24.25215061509967</v>
+        <v>24.25215061509966</v>
       </c>
       <c r="L19" t="n">
-        <v>31.03440306411113</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M19" t="n">
-        <v>32.72142668671077</v>
+        <v>32.72142668671076</v>
       </c>
       <c r="N19" t="n">
-        <v>31.94338429608554</v>
+        <v>31.94338429608552</v>
       </c>
       <c r="O19" t="n">
-        <v>29.50488558400391</v>
+        <v>29.50488558400389</v>
       </c>
       <c r="P19" t="n">
-        <v>25.2465267436061</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.47938648792513</v>
+        <v>17.47938648792512</v>
       </c>
       <c r="R19" t="n">
-        <v>9.385847961055006</v>
+        <v>9.385847961055001</v>
       </c>
       <c r="S19" t="n">
-        <v>3.63782259226495</v>
+        <v>3.637822592264948</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8919022526679848</v>
+        <v>0.8919022526679843</v>
       </c>
       <c r="U19" t="n">
         <v>0.01138598620427216</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4653568900908546</v>
+        <v>0.4653568900908544</v>
       </c>
       <c r="H29" t="n">
-        <v>4.765836250642966</v>
+        <v>4.765836250642964</v>
       </c>
       <c r="I29" t="n">
-        <v>17.94067150522769</v>
+        <v>17.94067150522768</v>
       </c>
       <c r="J29" t="n">
-        <v>39.49658435034871</v>
+        <v>39.49658435034869</v>
       </c>
       <c r="K29" t="n">
-        <v>59.19514150789459</v>
+        <v>59.19514150789457</v>
       </c>
       <c r="L29" t="n">
-        <v>73.4368074330126</v>
+        <v>73.43680743301258</v>
       </c>
       <c r="M29" t="n">
-        <v>81.71259802716582</v>
+        <v>81.7125980271658</v>
       </c>
       <c r="N29" t="n">
-        <v>83.03479329113648</v>
+        <v>83.03479329113645</v>
       </c>
       <c r="O29" t="n">
-        <v>78.40740071529554</v>
+        <v>78.40740071529551</v>
       </c>
       <c r="P29" t="n">
-        <v>66.91890249117756</v>
+        <v>66.91890249117753</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.25330886479881</v>
+        <v>50.25330886479879</v>
       </c>
       <c r="R29" t="n">
-        <v>29.23197474716967</v>
+        <v>29.23197474716966</v>
       </c>
       <c r="S29" t="n">
         <v>10.60432013294536</v>
       </c>
       <c r="T29" t="n">
-        <v>2.037099786372717</v>
+        <v>2.037099786372716</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03722855120726836</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2489878869953098</v>
+        <v>0.2489878869953097</v>
       </c>
       <c r="H30" t="n">
-        <v>2.40469880334944</v>
+        <v>2.404698803349439</v>
       </c>
       <c r="I30" t="n">
-        <v>8.572609267163079</v>
+        <v>8.572609267163077</v>
       </c>
       <c r="J30" t="n">
-        <v>23.52389506037706</v>
+        <v>23.52389506037705</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20608348906281</v>
+        <v>40.2060834890628</v>
       </c>
       <c r="L30" t="n">
-        <v>54.06204098992462</v>
+        <v>54.0620409899246</v>
       </c>
       <c r="M30" t="n">
-        <v>63.08785189350458</v>
+        <v>63.08785189350456</v>
       </c>
       <c r="N30" t="n">
-        <v>64.7575996093635</v>
+        <v>64.75759960936347</v>
       </c>
       <c r="O30" t="n">
-        <v>59.24055221857268</v>
+        <v>59.24055221857265</v>
       </c>
       <c r="P30" t="n">
-        <v>47.54576589474473</v>
+        <v>47.54576589474472</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.78308536452411</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R30" t="n">
-        <v>15.4590900364281</v>
+        <v>15.45909003642809</v>
       </c>
       <c r="S30" t="n">
-        <v>4.624840795724282</v>
+        <v>4.62484079572428</v>
       </c>
       <c r="T30" t="n">
         <v>1.003595912932849</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01638078203916513</v>
+        <v>0.01638078203916512</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.208743080411656</v>
+        <v>0.2087430804116559</v>
       </c>
       <c r="H31" t="n">
         <v>1.855915751296361</v>
       </c>
       <c r="I31" t="n">
-        <v>6.277473727288712</v>
+        <v>6.27747372728871</v>
       </c>
       <c r="J31" t="n">
-        <v>14.75813578510408</v>
+        <v>14.75813578510407</v>
       </c>
       <c r="K31" t="n">
-        <v>24.25215061509967</v>
+        <v>24.25215061509966</v>
       </c>
       <c r="L31" t="n">
-        <v>31.03440306411112</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M31" t="n">
         <v>32.72142668671076</v>
       </c>
       <c r="N31" t="n">
-        <v>31.94338429608553</v>
+        <v>31.94338429608552</v>
       </c>
       <c r="O31" t="n">
-        <v>29.5048855840039</v>
+        <v>29.50488558400389</v>
       </c>
       <c r="P31" t="n">
-        <v>25.2465267436061</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.47938648792513</v>
+        <v>17.47938648792512</v>
       </c>
       <c r="R31" t="n">
-        <v>9.385847961055005</v>
+        <v>9.385847961055001</v>
       </c>
       <c r="S31" t="n">
-        <v>3.637822592264949</v>
+        <v>3.637822592264948</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8919022526679846</v>
+        <v>0.8919022526679843</v>
       </c>
       <c r="U31" t="n">
         <v>0.01138598620427216</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4653568900908543</v>
+        <v>0.4653568900908544</v>
       </c>
       <c r="H35" t="n">
-        <v>4.765836250642963</v>
+        <v>4.765836250642964</v>
       </c>
       <c r="I35" t="n">
         <v>17.94067150522768</v>
       </c>
       <c r="J35" t="n">
-        <v>39.49658435034868</v>
+        <v>39.49658435034869</v>
       </c>
       <c r="K35" t="n">
-        <v>59.19514150789456</v>
+        <v>59.19514150789457</v>
       </c>
       <c r="L35" t="n">
-        <v>73.43680743301256</v>
+        <v>73.43680743301258</v>
       </c>
       <c r="M35" t="n">
         <v>81.7125980271658</v>
       </c>
       <c r="N35" t="n">
-        <v>83.03479329113644</v>
+        <v>83.03479329113645</v>
       </c>
       <c r="O35" t="n">
-        <v>78.40740071529549</v>
+        <v>78.40740071529551</v>
       </c>
       <c r="P35" t="n">
-        <v>66.91890249117752</v>
+        <v>66.91890249117753</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.25330886479878</v>
+        <v>50.25330886479879</v>
       </c>
       <c r="R35" t="n">
         <v>29.23197474716966</v>
       </c>
       <c r="S35" t="n">
-        <v>10.60432013294535</v>
+        <v>10.60432013294536</v>
       </c>
       <c r="T35" t="n">
         <v>2.037099786372716</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03722855120726834</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,16 +33731,16 @@
         <v>2.404698803349439</v>
       </c>
       <c r="I36" t="n">
-        <v>8.572609267163076</v>
+        <v>8.572609267163077</v>
       </c>
       <c r="J36" t="n">
         <v>23.52389506037705</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20608348906279</v>
+        <v>40.2060834890628</v>
       </c>
       <c r="L36" t="n">
-        <v>54.06204098992459</v>
+        <v>54.0620409899246</v>
       </c>
       <c r="M36" t="n">
         <v>63.08785189350456</v>
@@ -33752,10 +33752,10 @@
         <v>59.24055221857265</v>
       </c>
       <c r="P36" t="n">
-        <v>47.54576589474471</v>
+        <v>47.54576589474472</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.78308536452409</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R36" t="n">
         <v>15.45909003642809</v>
@@ -33807,10 +33807,10 @@
         <v>0.2087430804116559</v>
       </c>
       <c r="H37" t="n">
-        <v>1.85591575129636</v>
+        <v>1.855915751296361</v>
       </c>
       <c r="I37" t="n">
-        <v>6.277473727288709</v>
+        <v>6.27747372728871</v>
       </c>
       <c r="J37" t="n">
         <v>14.75813578510407</v>
@@ -33819,10 +33819,10 @@
         <v>24.25215061509966</v>
       </c>
       <c r="L37" t="n">
-        <v>31.0344030641111</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M37" t="n">
-        <v>32.72142668671075</v>
+        <v>32.72142668671076</v>
       </c>
       <c r="N37" t="n">
         <v>31.94338429608552</v>
@@ -33831,22 +33831,22 @@
         <v>29.50488558400389</v>
       </c>
       <c r="P37" t="n">
-        <v>25.24652674360608</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q37" t="n">
         <v>17.47938648792512</v>
       </c>
       <c r="R37" t="n">
-        <v>9.385847961054999</v>
+        <v>9.385847961055001</v>
       </c>
       <c r="S37" t="n">
         <v>3.637822592264948</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8919022526679842</v>
+        <v>0.8919022526679843</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01138598620427215</v>
+        <v>0.01138598620427216</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4653568900908543</v>
+        <v>0.4653568900908544</v>
       </c>
       <c r="H38" t="n">
-        <v>4.765836250642963</v>
+        <v>4.765836250642964</v>
       </c>
       <c r="I38" t="n">
         <v>17.94067150522768</v>
       </c>
       <c r="J38" t="n">
-        <v>39.49658435034868</v>
+        <v>39.49658435034869</v>
       </c>
       <c r="K38" t="n">
-        <v>59.19514150789456</v>
+        <v>59.19514150789457</v>
       </c>
       <c r="L38" t="n">
-        <v>73.43680743301256</v>
+        <v>73.43680743301258</v>
       </c>
       <c r="M38" t="n">
         <v>81.7125980271658</v>
       </c>
       <c r="N38" t="n">
-        <v>83.03479329113644</v>
+        <v>83.03479329113645</v>
       </c>
       <c r="O38" t="n">
-        <v>78.40740071529549</v>
+        <v>78.40740071529551</v>
       </c>
       <c r="P38" t="n">
-        <v>66.91890249117752</v>
+        <v>66.91890249117753</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.25330886479878</v>
+        <v>50.25330886479879</v>
       </c>
       <c r="R38" t="n">
         <v>29.23197474716966</v>
       </c>
       <c r="S38" t="n">
-        <v>10.60432013294535</v>
+        <v>10.60432013294536</v>
       </c>
       <c r="T38" t="n">
         <v>2.037099786372716</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03722855120726834</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>2.404698803349439</v>
       </c>
       <c r="I39" t="n">
-        <v>8.572609267163076</v>
+        <v>8.572609267163077</v>
       </c>
       <c r="J39" t="n">
         <v>23.52389506037705</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20608348906279</v>
+        <v>40.2060834890628</v>
       </c>
       <c r="L39" t="n">
-        <v>54.06204098992459</v>
+        <v>54.0620409899246</v>
       </c>
       <c r="M39" t="n">
         <v>63.08785189350456</v>
@@ -33989,10 +33989,10 @@
         <v>59.24055221857265</v>
       </c>
       <c r="P39" t="n">
-        <v>47.54576589474471</v>
+        <v>47.54576589474472</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.78308536452409</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R39" t="n">
         <v>15.45909003642809</v>
@@ -34044,10 +34044,10 @@
         <v>0.2087430804116559</v>
       </c>
       <c r="H40" t="n">
-        <v>1.85591575129636</v>
+        <v>1.855915751296361</v>
       </c>
       <c r="I40" t="n">
-        <v>6.277473727288709</v>
+        <v>6.27747372728871</v>
       </c>
       <c r="J40" t="n">
         <v>14.75813578510407</v>
@@ -34056,10 +34056,10 @@
         <v>24.25215061509966</v>
       </c>
       <c r="L40" t="n">
-        <v>31.0344030641111</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M40" t="n">
-        <v>32.72142668671075</v>
+        <v>32.72142668671076</v>
       </c>
       <c r="N40" t="n">
         <v>31.94338429608552</v>
@@ -34068,22 +34068,22 @@
         <v>29.50488558400389</v>
       </c>
       <c r="P40" t="n">
-        <v>25.24652674360608</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q40" t="n">
         <v>17.47938648792512</v>
       </c>
       <c r="R40" t="n">
-        <v>9.385847961054999</v>
+        <v>9.385847961055001</v>
       </c>
       <c r="S40" t="n">
         <v>3.637822592264948</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8919022526679842</v>
+        <v>0.8919022526679843</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01138598620427215</v>
+        <v>0.01138598620427216</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4653568900908543</v>
+        <v>0.4653568900908544</v>
       </c>
       <c r="H41" t="n">
-        <v>4.765836250642963</v>
+        <v>4.765836250642964</v>
       </c>
       <c r="I41" t="n">
         <v>17.94067150522768</v>
       </c>
       <c r="J41" t="n">
-        <v>39.49658435034868</v>
+        <v>39.49658435034869</v>
       </c>
       <c r="K41" t="n">
-        <v>59.19514150789456</v>
+        <v>59.19514150789457</v>
       </c>
       <c r="L41" t="n">
-        <v>73.43680743301256</v>
+        <v>73.43680743301258</v>
       </c>
       <c r="M41" t="n">
         <v>81.7125980271658</v>
       </c>
       <c r="N41" t="n">
-        <v>83.03479329113644</v>
+        <v>83.03479329113645</v>
       </c>
       <c r="O41" t="n">
-        <v>78.40740071529549</v>
+        <v>78.40740071529551</v>
       </c>
       <c r="P41" t="n">
-        <v>66.91890249117752</v>
+        <v>66.91890249117753</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.25330886479878</v>
+        <v>50.25330886479879</v>
       </c>
       <c r="R41" t="n">
         <v>29.23197474716966</v>
       </c>
       <c r="S41" t="n">
-        <v>10.60432013294535</v>
+        <v>10.60432013294536</v>
       </c>
       <c r="T41" t="n">
         <v>2.037099786372716</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03722855120726834</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>2.404698803349439</v>
       </c>
       <c r="I42" t="n">
-        <v>8.572609267163076</v>
+        <v>8.572609267163077</v>
       </c>
       <c r="J42" t="n">
         <v>23.52389506037705</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20608348906279</v>
+        <v>40.2060834890628</v>
       </c>
       <c r="L42" t="n">
-        <v>54.06204098992459</v>
+        <v>54.0620409899246</v>
       </c>
       <c r="M42" t="n">
         <v>63.08785189350456</v>
@@ -34226,10 +34226,10 @@
         <v>59.24055221857265</v>
       </c>
       <c r="P42" t="n">
-        <v>47.54576589474471</v>
+        <v>47.54576589474472</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.78308536452409</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R42" t="n">
         <v>15.45909003642809</v>
@@ -34281,10 +34281,10 @@
         <v>0.2087430804116559</v>
       </c>
       <c r="H43" t="n">
-        <v>1.85591575129636</v>
+        <v>1.855915751296361</v>
       </c>
       <c r="I43" t="n">
-        <v>6.277473727288709</v>
+        <v>6.27747372728871</v>
       </c>
       <c r="J43" t="n">
         <v>14.75813578510407</v>
@@ -34293,10 +34293,10 @@
         <v>24.25215061509966</v>
       </c>
       <c r="L43" t="n">
-        <v>31.0344030641111</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M43" t="n">
-        <v>32.72142668671075</v>
+        <v>32.72142668671076</v>
       </c>
       <c r="N43" t="n">
         <v>31.94338429608552</v>
@@ -34305,22 +34305,22 @@
         <v>29.50488558400389</v>
       </c>
       <c r="P43" t="n">
-        <v>25.24652674360608</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q43" t="n">
         <v>17.47938648792512</v>
       </c>
       <c r="R43" t="n">
-        <v>9.385847961054999</v>
+        <v>9.385847961055001</v>
       </c>
       <c r="S43" t="n">
         <v>3.637822592264948</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8919022526679842</v>
+        <v>0.8919022526679843</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01138598620427215</v>
+        <v>0.01138598620427216</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4653568900908543</v>
+        <v>0.4653568900908544</v>
       </c>
       <c r="H44" t="n">
-        <v>4.765836250642963</v>
+        <v>4.765836250642964</v>
       </c>
       <c r="I44" t="n">
         <v>17.94067150522768</v>
       </c>
       <c r="J44" t="n">
-        <v>39.49658435034868</v>
+        <v>39.49658435034869</v>
       </c>
       <c r="K44" t="n">
-        <v>59.19514150789456</v>
+        <v>59.19514150789457</v>
       </c>
       <c r="L44" t="n">
-        <v>73.43680743301256</v>
+        <v>73.43680743301258</v>
       </c>
       <c r="M44" t="n">
         <v>81.7125980271658</v>
       </c>
       <c r="N44" t="n">
-        <v>83.03479329113644</v>
+        <v>83.03479329113645</v>
       </c>
       <c r="O44" t="n">
-        <v>78.40740071529549</v>
+        <v>78.40740071529551</v>
       </c>
       <c r="P44" t="n">
-        <v>66.91890249117752</v>
+        <v>66.91890249117753</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.25330886479878</v>
+        <v>50.25330886479879</v>
       </c>
       <c r="R44" t="n">
         <v>29.23197474716966</v>
       </c>
       <c r="S44" t="n">
-        <v>10.60432013294535</v>
+        <v>10.60432013294536</v>
       </c>
       <c r="T44" t="n">
         <v>2.037099786372716</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03722855120726834</v>
+        <v>0.03722855120726835</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,16 +34442,16 @@
         <v>2.404698803349439</v>
       </c>
       <c r="I45" t="n">
-        <v>8.572609267163076</v>
+        <v>8.572609267163077</v>
       </c>
       <c r="J45" t="n">
         <v>23.52389506037705</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20608348906279</v>
+        <v>40.2060834890628</v>
       </c>
       <c r="L45" t="n">
-        <v>54.06204098992459</v>
+        <v>54.0620409899246</v>
       </c>
       <c r="M45" t="n">
         <v>63.08785189350456</v>
@@ -34463,10 +34463,10 @@
         <v>59.24055221857265</v>
       </c>
       <c r="P45" t="n">
-        <v>47.54576589474471</v>
+        <v>47.54576589474472</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.78308536452409</v>
+        <v>31.7830853645241</v>
       </c>
       <c r="R45" t="n">
         <v>15.45909003642809</v>
@@ -34518,10 +34518,10 @@
         <v>0.2087430804116559</v>
       </c>
       <c r="H46" t="n">
-        <v>1.85591575129636</v>
+        <v>1.855915751296361</v>
       </c>
       <c r="I46" t="n">
-        <v>6.277473727288709</v>
+        <v>6.27747372728871</v>
       </c>
       <c r="J46" t="n">
         <v>14.75813578510407</v>
@@ -34530,10 +34530,10 @@
         <v>24.25215061509966</v>
       </c>
       <c r="L46" t="n">
-        <v>31.0344030641111</v>
+        <v>31.03440306411111</v>
       </c>
       <c r="M46" t="n">
-        <v>32.72142668671075</v>
+        <v>32.72142668671076</v>
       </c>
       <c r="N46" t="n">
         <v>31.94338429608552</v>
@@ -34542,22 +34542,22 @@
         <v>29.50488558400389</v>
       </c>
       <c r="P46" t="n">
-        <v>25.24652674360608</v>
+        <v>25.24652674360609</v>
       </c>
       <c r="Q46" t="n">
         <v>17.47938648792512</v>
       </c>
       <c r="R46" t="n">
-        <v>9.385847961054999</v>
+        <v>9.385847961055001</v>
       </c>
       <c r="S46" t="n">
         <v>3.637822592264948</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8919022526679842</v>
+        <v>0.8919022526679843</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01138598620427215</v>
+        <v>0.01138598620427216</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N2" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="Q3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O4" t="n">
-        <v>9.605247316954337</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M5" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N5" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="O6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.605247316954337</v>
       </c>
       <c r="P6" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,16 +35100,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M7" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="O7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>80.24903034967252</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="M8" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7.523228053909891</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.62793689071134</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>83.62793689071134</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>19.38625607380835</v>
       </c>
       <c r="M9" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>19.38625607380772</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>16.64450133135149</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L10" t="n">
-        <v>83.62793689071134</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>83.62793689071202</v>
       </c>
       <c r="N10" t="n">
-        <v>83.62793689071134</v>
+        <v>66.32881423757587</v>
       </c>
       <c r="O10" t="n">
-        <v>83.62793689071134</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>63.604529018321</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.2223866461121</v>
+        <v>112.222386646112</v>
       </c>
       <c r="K11" t="n">
-        <v>301.7611738763622</v>
+        <v>301.761173876362</v>
       </c>
       <c r="L11" t="n">
-        <v>424.8361741854837</v>
+        <v>424.8361741854835</v>
       </c>
       <c r="M11" t="n">
-        <v>478.9238770706892</v>
+        <v>478.923877070689</v>
       </c>
       <c r="N11" t="n">
-        <v>465.187680854486</v>
+        <v>465.1876808544857</v>
       </c>
       <c r="O11" t="n">
-        <v>386.4928395767442</v>
+        <v>386.492839576744</v>
       </c>
       <c r="P11" t="n">
-        <v>297.3804140629487</v>
+        <v>297.3804140629485</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.6394236996848</v>
+        <v>145.6394236996847</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>84.38666933624192</v>
+        <v>84.38666933624185</v>
       </c>
       <c r="K12" t="n">
-        <v>272.0147224387484</v>
+        <v>272.0147224387483</v>
       </c>
       <c r="L12" t="n">
-        <v>423.5790563132739</v>
+        <v>423.5790563132738</v>
       </c>
       <c r="M12" t="n">
-        <v>553.0205322068648</v>
+        <v>150.6882498721505</v>
       </c>
       <c r="N12" t="n">
-        <v>178.8552628535594</v>
+        <v>581.1875451882747</v>
       </c>
       <c r="O12" t="n">
-        <v>455.4021186672101</v>
+        <v>455.4021186672099</v>
       </c>
       <c r="P12" t="n">
-        <v>352.6931591025199</v>
+        <v>352.6931591025197</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.1483679762355</v>
+        <v>191.1483679762354</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.29020365402522</v>
+        <v>59.29020365402516</v>
       </c>
       <c r="K13" t="n">
-        <v>162.1845086684781</v>
+        <v>162.184508668478</v>
       </c>
       <c r="L13" t="n">
-        <v>236.646449658516</v>
+        <v>236.6464496585158</v>
       </c>
       <c r="M13" t="n">
-        <v>255.8955204804512</v>
+        <v>255.8955204804511</v>
       </c>
       <c r="N13" t="n">
-        <v>255.5506453847741</v>
+        <v>255.550645384774</v>
       </c>
       <c r="O13" t="n">
-        <v>232.951848436419</v>
+        <v>232.9518484364189</v>
       </c>
       <c r="P13" t="n">
-        <v>192.8397898308173</v>
+        <v>192.8397898308172</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.31615262396741</v>
+        <v>83.31615262396735</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.2223866461119</v>
+        <v>112.222386646112</v>
       </c>
       <c r="K14" t="n">
-        <v>301.7611738763619</v>
+        <v>301.761173876362</v>
       </c>
       <c r="L14" t="n">
-        <v>424.8361741854834</v>
+        <v>424.8361741854835</v>
       </c>
       <c r="M14" t="n">
-        <v>478.9238770706888</v>
+        <v>478.9238770706889</v>
       </c>
       <c r="N14" t="n">
-        <v>465.1876808544855</v>
+        <v>465.1876808544856</v>
       </c>
       <c r="O14" t="n">
-        <v>386.4928395767438</v>
+        <v>386.4928395767439</v>
       </c>
       <c r="P14" t="n">
-        <v>297.3804140629483</v>
+        <v>297.3804140629484</v>
       </c>
       <c r="Q14" t="n">
         <v>145.6394236996846</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>84.38666933624184</v>
       </c>
       <c r="K15" t="n">
         <v>272.0147224387483</v>
       </c>
       <c r="L15" t="n">
-        <v>423.5790563132736</v>
+        <v>21.24677397856015</v>
       </c>
       <c r="M15" t="n">
-        <v>553.0205322068645</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N15" t="n">
-        <v>581.1875451882745</v>
+        <v>581.1875451882746</v>
       </c>
       <c r="O15" t="n">
-        <v>455.4021186672098</v>
+        <v>455.4021186672099</v>
       </c>
       <c r="P15" t="n">
-        <v>225.8959140802836</v>
+        <v>352.6931591025197</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>191.1483679762354</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.29020365402514</v>
+        <v>59.29020365402515</v>
       </c>
       <c r="K16" t="n">
         <v>162.184508668478</v>
@@ -35811,7 +35811,7 @@
         <v>236.6464496585158</v>
       </c>
       <c r="M16" t="n">
-        <v>255.895520480451</v>
+        <v>255.8955204804511</v>
       </c>
       <c r="N16" t="n">
         <v>255.5506453847739</v>
@@ -35820,10 +35820,10 @@
         <v>232.9518484364189</v>
       </c>
       <c r="P16" t="n">
-        <v>192.8397898308171</v>
+        <v>192.8397898308172</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.31615262396733</v>
+        <v>83.31615262396734</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>301.761173876362</v>
       </c>
       <c r="L17" t="n">
-        <v>424.8361741854836</v>
+        <v>424.8361741854835</v>
       </c>
       <c r="M17" t="n">
-        <v>478.9238770706891</v>
+        <v>478.9238770706889</v>
       </c>
       <c r="N17" t="n">
         <v>465.1876808544857</v>
       </c>
       <c r="O17" t="n">
-        <v>386.492839576744</v>
+        <v>386.4928395767433</v>
       </c>
       <c r="P17" t="n">
         <v>297.3804140629485</v>
       </c>
       <c r="Q17" t="n">
-        <v>145.6394236996847</v>
+        <v>145.6394236996846</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>84.38666933624185</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>272.0147224387483</v>
       </c>
       <c r="L18" t="n">
-        <v>423.5790563132738</v>
+        <v>423.5790563132737</v>
       </c>
       <c r="M18" t="n">
-        <v>553.0205322068647</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N18" t="n">
-        <v>581.1875451882747</v>
+        <v>370.0036308297963</v>
       </c>
       <c r="O18" t="n">
         <v>455.4021186672099</v>
       </c>
       <c r="P18" t="n">
-        <v>352.6931591025198</v>
+        <v>352.6931591025197</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.83080808026958</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>58.19577459958797</v>
+        <v>58.19577459958796</v>
       </c>
       <c r="L19" t="n">
         <v>132.6577155896258</v>
@@ -36057,7 +36057,7 @@
         <v>128.9631143675288</v>
       </c>
       <c r="P19" t="n">
-        <v>88.85105576192711</v>
+        <v>88.85105576192709</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>423.5790563132737</v>
       </c>
       <c r="M21" t="n">
-        <v>150.6882498721509</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N21" t="n">
-        <v>581.1875451882747</v>
+        <v>178.855262853561</v>
       </c>
       <c r="O21" t="n">
         <v>455.4021186672099</v>
@@ -36446,13 +36446,13 @@
         <v>553.0205322068646</v>
       </c>
       <c r="N24" t="n">
-        <v>581.1875451882747</v>
+        <v>263.2419321898029</v>
       </c>
       <c r="O24" t="n">
         <v>455.4021186672099</v>
       </c>
       <c r="P24" t="n">
-        <v>34.74754610404792</v>
+        <v>352.6931591025197</v>
       </c>
       <c r="Q24" t="n">
         <v>191.1483679762354</v>
@@ -36595,22 +36595,22 @@
         <v>216.2111207150021</v>
       </c>
       <c r="K26" t="n">
-        <v>301.761173876362</v>
+        <v>405.7499079452521</v>
       </c>
       <c r="L26" t="n">
-        <v>424.8361741854835</v>
+        <v>528.8249082543737</v>
       </c>
       <c r="M26" t="n">
-        <v>478.923877070689</v>
+        <v>537.3231977176055</v>
       </c>
       <c r="N26" t="n">
-        <v>569.1764149233758</v>
+        <v>465.1876808544857</v>
       </c>
       <c r="O26" t="n">
-        <v>444.8921602236592</v>
+        <v>386.492839576744</v>
       </c>
       <c r="P26" t="n">
-        <v>401.3691481318386</v>
+        <v>297.3804140629485</v>
       </c>
       <c r="Q26" t="n">
         <v>145.6394236996847</v>
@@ -36680,13 +36680,13 @@
         <v>423.5790563132738</v>
       </c>
       <c r="M27" t="n">
-        <v>235.0749192083927</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N27" t="n">
         <v>581.1875451882747</v>
       </c>
       <c r="O27" t="n">
-        <v>455.4021186672099</v>
+        <v>137.4565056687382</v>
       </c>
       <c r="P27" t="n">
         <v>352.6931591025197</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.29020365402515</v>
+        <v>59.29020365402516</v>
       </c>
       <c r="K28" t="n">
         <v>162.184508668478</v>
@@ -36771,7 +36771,7 @@
         <v>192.8397898308172</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.31615262396734</v>
+        <v>83.31615262396735</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>216.2111207150021</v>
+        <v>112.222386646112</v>
       </c>
       <c r="K29" t="n">
-        <v>360.1604945232775</v>
+        <v>301.761173876362</v>
       </c>
       <c r="L29" t="n">
-        <v>424.8361741854835</v>
+        <v>528.8249082543737</v>
       </c>
       <c r="M29" t="n">
-        <v>478.923877070689</v>
+        <v>478.9238770706889</v>
       </c>
       <c r="N29" t="n">
-        <v>569.1764149233758</v>
+        <v>465.1876808544857</v>
       </c>
       <c r="O29" t="n">
-        <v>386.492839576744</v>
+        <v>401.403355046707</v>
       </c>
       <c r="P29" t="n">
-        <v>297.3804140629485</v>
+        <v>401.3691481318385</v>
       </c>
       <c r="Q29" t="n">
         <v>249.6281577685747</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>43.48880517695456</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>84.38666933624185</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>272.0147224387483</v>
       </c>
       <c r="L30" t="n">
-        <v>423.5790563132738</v>
+        <v>423.5790563132737</v>
       </c>
       <c r="M30" t="n">
         <v>553.0205322068646</v>
       </c>
       <c r="N30" t="n">
-        <v>581.1875451882747</v>
+        <v>263.2419321898032</v>
       </c>
       <c r="O30" t="n">
-        <v>53.06983633249637</v>
+        <v>455.4021186672099</v>
       </c>
       <c r="P30" t="n">
-        <v>352.6931591025198</v>
+        <v>352.6931591025197</v>
       </c>
       <c r="Q30" t="n">
         <v>191.1483679762354</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.29020365402515</v>
+        <v>59.29020365402516</v>
       </c>
       <c r="K31" t="n">
         <v>162.184508668478</v>
@@ -37002,13 +37002,13 @@
         <v>255.550645384774</v>
       </c>
       <c r="O31" t="n">
-        <v>232.9518484364189</v>
+        <v>232.951848436418</v>
       </c>
       <c r="P31" t="n">
         <v>192.8397898308172</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.31615262396734</v>
+        <v>83.31615262396735</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>301.761173876362</v>
       </c>
       <c r="L32" t="n">
-        <v>503.7031396830106</v>
+        <v>424.8361741854835</v>
       </c>
       <c r="M32" t="n">
         <v>478.9238770706889</v>
@@ -37090,7 +37090,7 @@
         <v>145.6394236996846</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.86696549752641</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>423.5790563132737</v>
       </c>
       <c r="M33" t="n">
-        <v>150.6882498721509</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N33" t="n">
-        <v>581.1875451882747</v>
+        <v>178.855262853561</v>
       </c>
       <c r="O33" t="n">
         <v>455.4021186672099</v>
@@ -37242,13 +37242,13 @@
         <v>128.9631143675288</v>
       </c>
       <c r="P34" t="n">
-        <v>91.26129306327361</v>
+        <v>88.85105576192709</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.410237301346615</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>465.1876808544857</v>
       </c>
       <c r="O35" t="n">
-        <v>386.4928395767439</v>
+        <v>386.492839576744</v>
       </c>
       <c r="P35" t="n">
-        <v>297.3804140629484</v>
+        <v>297.3804140629485</v>
       </c>
       <c r="Q35" t="n">
         <v>145.6394236996846</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>84.38666933624184</v>
+        <v>84.38666933624185</v>
       </c>
       <c r="K36" t="n">
         <v>272.0147224387483</v>
       </c>
       <c r="L36" t="n">
-        <v>21.24677397856004</v>
+        <v>423.5790563132737</v>
       </c>
       <c r="M36" t="n">
         <v>553.0205322068646</v>
       </c>
       <c r="N36" t="n">
-        <v>581.1875451882747</v>
+        <v>370.0036308297963</v>
       </c>
       <c r="O36" t="n">
         <v>455.4021186672099</v>
@@ -37403,7 +37403,7 @@
         <v>352.6931591025197</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.1483679762354</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>58.19577459958795</v>
+        <v>58.19577459958796</v>
       </c>
       <c r="L37" t="n">
         <v>132.6577155896258</v>
@@ -37555,10 +37555,10 @@
         <v>465.1876808544857</v>
       </c>
       <c r="O38" t="n">
-        <v>386.4928395767439</v>
+        <v>386.492839576744</v>
       </c>
       <c r="P38" t="n">
-        <v>297.3804140629484</v>
+        <v>297.3804140629485</v>
       </c>
       <c r="Q38" t="n">
         <v>145.6394236996846</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>84.38666933624184</v>
+        <v>84.38666933624185</v>
       </c>
       <c r="K39" t="n">
         <v>272.0147224387483</v>
@@ -37628,13 +37628,13 @@
         <v>423.5790563132737</v>
       </c>
       <c r="M39" t="n">
-        <v>150.6882498721509</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N39" t="n">
         <v>581.1875451882747</v>
       </c>
       <c r="O39" t="n">
-        <v>455.4021186672099</v>
+        <v>53.06983633249614</v>
       </c>
       <c r="P39" t="n">
         <v>352.6931591025197</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>58.19577459958795</v>
+        <v>58.19577459958796</v>
       </c>
       <c r="L40" t="n">
         <v>132.6577155896258</v>
@@ -37792,10 +37792,10 @@
         <v>465.1876808544857</v>
       </c>
       <c r="O41" t="n">
-        <v>386.4928395767439</v>
+        <v>386.492839576744</v>
       </c>
       <c r="P41" t="n">
-        <v>297.3804140629484</v>
+        <v>297.3804140629485</v>
       </c>
       <c r="Q41" t="n">
         <v>145.6394236996846</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>84.38666933624184</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>272.0147224387483</v>
       </c>
       <c r="L42" t="n">
-        <v>21.24677397856004</v>
+        <v>423.5790563132737</v>
       </c>
       <c r="M42" t="n">
         <v>553.0205322068646</v>
       </c>
       <c r="N42" t="n">
-        <v>581.1875451882747</v>
+        <v>263.2419321898029</v>
       </c>
       <c r="O42" t="n">
         <v>455.4021186672099</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>58.19577459958795</v>
+        <v>58.19577459958796</v>
       </c>
       <c r="L43" t="n">
         <v>132.6577155896258</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.557452259191331e-12</v>
       </c>
       <c r="J44" t="n">
         <v>112.222386646112</v>
@@ -38029,10 +38029,10 @@
         <v>465.1876808544857</v>
       </c>
       <c r="O44" t="n">
-        <v>386.4928395767437</v>
+        <v>386.492839576744</v>
       </c>
       <c r="P44" t="n">
-        <v>297.3804140629484</v>
+        <v>297.3804140629485</v>
       </c>
       <c r="Q44" t="n">
         <v>145.6394236996846</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>84.38666933624184</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>272.0147224387483</v>
@@ -38102,10 +38102,10 @@
         <v>423.5790563132737</v>
       </c>
       <c r="M45" t="n">
-        <v>150.6882498721509</v>
+        <v>553.0205322068646</v>
       </c>
       <c r="N45" t="n">
-        <v>581.1875451882747</v>
+        <v>263.2419321898029</v>
       </c>
       <c r="O45" t="n">
         <v>455.4021186672099</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>58.19577459958795</v>
+        <v>58.19577459958796</v>
       </c>
       <c r="L46" t="n">
         <v>132.6577155896258</v>
